--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.141</v>
+        <v>28.309</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.541</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.141</v>
+        <v>27.396</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.571</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.973</v>
+        <v>27.778</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.638643435392378</v>
+        <v>28.37213808020474</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.31613662479074</v>
+        <v>28.37213811566417</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>23.14373639364746</v>
+        <v>28.3721381264296</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.5057069427813943</v>
+        <v>28.37213807735884</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.09039478566384</v>
+        <v>28.37213811751346</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.56418034892947</v>
+        <v>28.37213812970434</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.457641597220611</v>
+        <v>28.37213808627804</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.22349842577079</v>
+        <v>28.37213812206733</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.09548515648279</v>
+        <v>28.3721381329329</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.99547116440033</v>
+        <v>28.37213813325224</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.25986890685775</v>
+        <v>28.37213815106798</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.67451575910101</v>
+        <v>28.3721381561126</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.481551544714772</v>
+        <v>28.37213810675448</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.3395755586681</v>
+        <v>28.37213814990513</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.56770623802605</v>
+        <v>28.37213816277161</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.006326744877985</v>
+        <v>28.37213814619445</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.12052487216053</v>
+        <v>28.37213818637017</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.85212540051381</v>
+        <v>28.37213819883394</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.231530204104967</v>
+        <v>28.37213814252191</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.2604697329372</v>
+        <v>28.3721381880173</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.75472562541522</v>
+        <v>28.37213820213141</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.086704412586165</v>
+        <v>28.37213815650132</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.31970455758489</v>
+        <v>28.37213819705076</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.695905669793547</v>
+        <v>28.37213809833716</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.93672489805598</v>
+        <v>28.37213813530325</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>27.80111460386242</v>
+        <v>28.3721381460106</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.366442368042129</v>
+        <v>28.37213809731664</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.5999994788104</v>
+        <v>28.3721381391774</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27.11539278078814</v>
+        <v>28.37213815130252</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.60663943600975</v>
+        <v>28.37213810706789</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.94000723267394</v>
+        <v>28.37213814437784</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31.84902267336254</v>
+        <v>28.3721381551848</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.8855590158989</v>
+        <v>28.37213815535982</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>35.33356572003416</v>
+        <v>28.37213817362573</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.7994766379724</v>
+        <v>28.37213817869414</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>12.81362043490503</v>
+        <v>28.37213812726329</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.37799524847791</v>
+        <v>28.37213817222593</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.64454005178936</v>
+        <v>28.3721381849684</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.11463708418675</v>
+        <v>28.37213816851363</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.86986255248521</v>
+        <v>28.37213821040036</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.66040126927282</v>
+        <v>28.37213822282916</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.807166232793364</v>
+        <v>28.37213816694899</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.02464005666163</v>
+        <v>28.37213821438195</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.58555877847564</v>
+        <v>28.37213822845645</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.47154151115936</v>
+        <v>28.37213818190872</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.35038609033292</v>
+        <v>28.3721382241851</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.760125936241689</v>
+        <v>28.3721381032059</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.02525249041745</v>
+        <v>28.37213814004221</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.85562813061908</v>
+        <v>28.37213815063507</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.711513177905356</v>
+        <v>28.37213810274458</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.97273065525167</v>
+        <v>28.3721381444584</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.44952218561002</v>
+        <v>28.37213815645386</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>12.96309110352938</v>
+        <v>28.37213811251422</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.32117086569334</v>
+        <v>28.3721381496932</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.19583155327257</v>
+        <v>28.3721381603846</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.32290024581806</v>
+        <v>28.37213816045179</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.75465488820241</v>
+        <v>28.37213817857412</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>40.20371608577078</v>
+        <v>28.37213818361171</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.22730701557996</v>
+        <v>28.37213813232931</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>32.83007841734048</v>
+        <v>28.37213817715212</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.04995525750913</v>
+        <v>28.37213818973771</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.42723363616425</v>
+        <v>28.37213817329449</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.19510624437265</v>
+        <v>28.37213821503376</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.94882933597376</v>
+        <v>28.37213822733791</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5.457455161636087</v>
+        <v>28.37213817234174</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.68935877879258</v>
+        <v>28.37213821960771</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>33.20852579483806</v>
+        <v>28.37213823354105</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>15.13083117828992</v>
+        <v>28.37213818728607</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.02261028880704</v>
+        <v>28.37213822941361</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7.467680573651023</v>
+        <v>28.37213808878609</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.71708795725342</v>
+        <v>28.37213812503019</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>27.566447816492</v>
+        <v>28.37213813588154</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.735394359255555</v>
+        <v>28.37213808728184</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.97840380477517</v>
+        <v>28.37213812832504</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.47683969828737</v>
+        <v>28.37213814061321</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>11.09788844041707</v>
+        <v>28.3721380965177</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.43954071767306</v>
+        <v>28.37213813309896</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.33341919599206</v>
+        <v>28.37213814405126</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.38025365086317</v>
+        <v>28.37213814407921</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>34.87140320008528</v>
+        <v>28.37213816210733</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>38.32607328586715</v>
+        <v>28.3721381672416</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12.26293329826863</v>
+        <v>28.3721381167124</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.81784181203003</v>
+        <v>28.37213816086817</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>37.0760101810815</v>
+        <v>28.37213817378616</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>9.660370310899825</v>
+        <v>28.3721381567892</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.44995086222175</v>
+        <v>28.37213819785791</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.22371064106721</v>
+        <v>28.37213821044181</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.881320457195411</v>
+        <v>28.37213815458147</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.13744982711563</v>
+        <v>28.37213820108809</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>30.6794112797227</v>
+        <v>28.37213821533822</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>12.68756886378301</v>
+        <v>28.37213816895537</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.60068344205195</v>
+        <v>28.37213821040611</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>31.10015320600709</v>
+        <v>28.37213820963048</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.41603716665024</v>
+        <v>28.37213820635184</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.18695794556483</v>
+        <v>28.37213822722613</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>40.51604611870752</v>
+        <v>28.37213823303292</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.09984814423029</v>
+        <v>28.37213817498249</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.92548507830714</v>
+        <v>28.37213822439185</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.94857374957152</v>
+        <v>28.37213823914229</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.80485152690645</v>
+        <v>28.37213819180565</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.77403850433973</v>
+        <v>28.37213823151415</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.74451316643805</v>
+        <v>28.37213824371854</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5.556612594656229</v>
+        <v>28.3721381903331</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.01453578535065</v>
+        <v>28.37213823529941</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.78122925940107</v>
+        <v>28.37213824911978</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>16.38181051823119</v>
+        <v>28.37213820572984</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.47627331651857</v>
+        <v>28.37213824580773</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>41.49812614832953</v>
+        <v>28.37213825812565</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>38.40567195733662</v>
+        <v>28.37213825415654</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>48.37876594813761</v>
+        <v>28.37213827439171</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>52.89477946728309</v>
+        <v>28.37213827986919</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.54812853069079</v>
+        <v>28.37213822194779</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>44.29927080481328</v>
+        <v>28.37213827056979</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>51.66320933998809</v>
+        <v>28.37213828512434</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>38.19017936295741</v>
+        <v>28.37213823672952</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.59481079943357</v>
+        <v>28.3721382329674</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.57041760341834</v>
+        <v>28.37213825431806</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>47.97358258782175</v>
+        <v>28.37213826015335</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.68718693081053</v>
+        <v>28.37213819984994</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>40.32087007781238</v>
+        <v>28.37213825131883</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>47.40866236694546</v>
+        <v>28.37213826596076</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>17.65135678512764</v>
+        <v>28.3721382151532</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.25378520648421</v>
+        <v>28.37213825656125</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.27317405797815</v>
+        <v>28.37213826869938</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>12.34495085771041</v>
+        <v>28.37213821582034</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.51949093064813</v>
+        <v>28.37213826271124</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.34154821887191</v>
+        <v>28.37213827645659</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>23.56754565633675</v>
+        <v>28.37213823221381</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.2999651189111</v>
+        <v>28.37213827400706</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>49.37111093885561</v>
+        <v>28.37213828625811</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>46.38046683909104</v>
+        <v>28.37213828175933</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.54708265031984</v>
+        <v>28.37213830246507</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>61.1280450572728</v>
+        <v>28.37213830794344</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.90566768690246</v>
+        <v>28.37213824784372</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.44832244678825</v>
+        <v>28.37213829849574</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>59.86960186094024</v>
+        <v>28.37213831290567</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.82524816479178</v>
+        <v>28.37213824183222</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.31637335283232</v>
+        <v>28.37213823791815</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>45.25714753861361</v>
+        <v>28.37213825908999</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>49.64040738568066</v>
+        <v>28.3721382648886</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>18.39219789363609</v>
+        <v>28.37213820481444</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42.04468819879121</v>
+        <v>28.37213825611741</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>49.08502693572535</v>
+        <v>28.37213827058744</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>19.09825761517019</v>
+        <v>28.37213821969458</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>38.70273637033642</v>
+        <v>28.37213826097311</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.67884030352774</v>
+        <v>28.37213827297569</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>14.12370445322255</v>
+        <v>28.37213822095645</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.30068536665441</v>
+        <v>28.37213826770068</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.07366006849935</v>
+        <v>28.37213828129252</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.35383896033216</v>
+        <v>28.37213823732318</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.08850362723091</v>
+        <v>28.3721382789857</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>51.11598050443571</v>
+        <v>28.37213829109993</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>48.20144894716238</v>
+        <v>28.3721382864471</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>58.32788537013678</v>
+        <v>28.37213830698794</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>62.8841048300512</v>
+        <v>28.37213831242095</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.71850006054133</v>
+        <v>28.37213825254267</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>54.26629816126083</v>
+        <v>28.3721383030496</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>61.63328248531062</v>
+        <v>28.37213831727532</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.42354741830931</v>
+        <v>28.37213822310707</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.88747803242078</v>
+        <v>28.3721382192982</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>42.93629494958589</v>
+        <v>28.37213824039077</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>47.32514879733863</v>
+        <v>28.37213824629862</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>15.89830353806383</v>
+        <v>28.37213818700695</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>39.56120104231852</v>
+        <v>28.37213823756078</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>46.63610661304563</v>
+        <v>28.37213825238824</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>16.77410493900884</v>
+        <v>28.37213820344144</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.42027696733508</v>
+        <v>28.37213824407602</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.42929030778214</v>
+        <v>28.37213825636474</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>11.00384592508965</v>
+        <v>28.37213820346329</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.22764253393362</v>
+        <v>28.3721382494783</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>40.03800228093509</v>
+        <v>28.37213826339417</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.3608456190269</v>
+        <v>28.37213821928434</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>42.13699332870222</v>
+        <v>28.37213826029692</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>48.19765324434318</v>
+        <v>28.37213827269995</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>45.28274387849219</v>
+        <v>28.37213826817315</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.5261623916486</v>
+        <v>28.37213828864044</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.09876301320266</v>
+        <v>28.3721382941874</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.73629094413073</v>
+        <v>28.37213823499541</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>51.32286902927936</v>
+        <v>28.37213828479109</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>58.73608057664316</v>
+        <v>28.37213829938581</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>4.002341243279741</v>
+        <v>28.37213808618209</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.35559361032868</v>
+        <v>28.3721381194952</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.13921688190739</v>
+        <v>28.37213812990884</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.2457021961841477</v>
+        <v>28.3721380837991</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>14.85142631968981</v>
+        <v>28.37213812152321</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>20.27492151160501</v>
+        <v>28.37213813331571</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.332068171193153</v>
+        <v>28.372138092258</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19.76359291449635</v>
+        <v>28.372138125881</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.591056778747</v>
+        <v>28.37213813639151</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.96994892094252</v>
+        <v>28.37213813696986</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.64655737311458</v>
+        <v>28.3721381539079</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.07310374107815</v>
+        <v>28.37213815882848</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>7.964454310364644</v>
+        <v>28.37213811234554</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.18768828026662</v>
+        <v>28.37213815286917</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>30.38234580594354</v>
+        <v>28.37213816527059</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3.730950727168644</v>
+        <v>28.37213814882555</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.39367024970142</v>
+        <v>28.3721381865903</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.12958984576991</v>
+        <v>28.37213819866162</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.359841684244444</v>
+        <v>28.37213814568699</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.48906864939578</v>
+        <v>28.37213818845218</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>21.98794685838154</v>
+        <v>28.37213820212186</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>5.270513769196842</v>
+        <v>28.37213815882495</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.04098003594612</v>
+        <v>28.372138196941</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>7.991923049529785</v>
+        <v>28.37213810404233</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.87405534813396</v>
+        <v>28.37213813878239</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.70002155617981</v>
+        <v>28.37213814915334</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>4.52396803527029</v>
+        <v>28.37213810342617</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>20.21955516684013</v>
+        <v>28.37213814276616</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.69095006023922</v>
+        <v>28.37213815451033</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>11.37721017122</v>
+        <v>28.37213811272706</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.34151749610768</v>
+        <v>28.37213814779028</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.21161513486153</v>
+        <v>28.37213815825771</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.72391030067972</v>
+        <v>28.37213815872406</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.5740934545093</v>
+        <v>28.3721381760867</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.05475119870142</v>
+        <v>28.37213818103185</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>13.19102611966952</v>
+        <v>28.37213813256252</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>30.07658259873527</v>
+        <v>28.37213817480088</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.3171097402853</v>
+        <v>28.37213818709862</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>8.708859328927439</v>
+        <v>28.37213817070271</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.97462921547366</v>
+        <v>28.37213821008868</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>31.77638641647759</v>
+        <v>28.3721382221431</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>2.50972530185383</v>
+        <v>28.37213816959972</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.0411192538566</v>
+        <v>28.37213821420078</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.61447965547097</v>
+        <v>28.37213822785134</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.48130873869137</v>
+        <v>28.3721381837235</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.85933379041452</v>
+        <v>28.37213822347585</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>9.045726120695818</v>
+        <v>28.37213810878458</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.95522795597783</v>
+        <v>28.37213814340654</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.74936033937048</v>
+        <v>28.37213815367132</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>5.848276381609423</v>
+        <v>28.37213810870071</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.57498728408138</v>
+        <v>28.37213814790697</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.01025583716505</v>
+        <v>28.37213815953092</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12.71644903013307</v>
+        <v>28.37213811802976</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.70854734860619</v>
+        <v>28.37213815297378</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>31.54649241432247</v>
+        <v>28.37213816333405</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.14258922039474</v>
+        <v>28.3721381636912</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.97951942053629</v>
+        <v>28.37213818091839</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.44413571780664</v>
+        <v>28.37213818583465</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.58059420754641</v>
+        <v>28.37213813749471</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.50783862677544</v>
+        <v>28.37213817960715</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>37.70431334388967</v>
+        <v>28.37213819175953</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.00914782635296</v>
+        <v>28.37213817536871</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.29066276080256</v>
+        <v>28.37213821461985</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.05769748325106</v>
+        <v>28.37213822655924</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>4.134401557735384</v>
+        <v>28.37213817484851</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.68373033952873</v>
+        <v>28.37213821929689</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.21771462189362</v>
+        <v>28.37213823281719</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.12028161830622</v>
+        <v>28.37213818897084</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.51435582535751</v>
+        <v>28.3721382285871</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.751036864483897</v>
+        <v>28.37213809460431</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.63403328947529</v>
+        <v>28.37213812866379</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.44405206084729</v>
+        <v>28.37213813917352</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3.89257371275805</v>
+        <v>28.37213809351111</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.58887383202089</v>
+        <v>28.37213813208042</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.04226750467088</v>
+        <v>28.37213814398175</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>10.86002386956995</v>
+        <v>28.37213810229606</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.82484105309</v>
+        <v>28.37213813667238</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.67887615078984</v>
+        <v>28.37213814727988</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.21140066738671</v>
+        <v>28.37213814756921</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33.09948391051944</v>
+        <v>28.37213816471258</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.56760372496912</v>
+        <v>28.37213816972806</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>12.64525774395531</v>
+        <v>28.37213812211271</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.51265233965013</v>
+        <v>28.37213816359369</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.7430619697251</v>
+        <v>28.37213817606225</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.234843925624794</v>
+        <v>28.37213815918224</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.52660290169487</v>
+        <v>28.37213819779605</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.31076832982853</v>
+        <v>28.37213820999939</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>1.581848064802301</v>
+        <v>28.37213815745231</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.14243211120194</v>
+        <v>28.37213820117898</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>27.69591111038546</v>
+        <v>28.37213821499817</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.68293849301506</v>
+        <v>28.37213817099214</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.0868148148056</v>
+        <v>28.37213820996516</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.82583694550831</v>
+        <v>28.37213820912461</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.59688300422224</v>
+        <v>28.37213820617098</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.69704917489165</v>
+        <v>28.37213822603275</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.08015485714031</v>
+        <v>28.372138231693</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.888629857789514</v>
+        <v>28.37213817693447</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.92599995561051</v>
+        <v>28.37213822338911</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.97544957920623</v>
+        <v>28.37213823760683</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10.52366291941863</v>
+        <v>28.37213819247661</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.04781228541836</v>
+        <v>28.37213822983738</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>33.97484952946398</v>
+        <v>28.3721382415872</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4.439265981179854</v>
+        <v>28.3721381913701</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.26165810712693</v>
+        <v>28.37213823367781</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>30.97858866384686</v>
+        <v>28.37213824698343</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.506788180851</v>
+        <v>28.37213820583579</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.14531663505169</v>
+        <v>28.37213824354411</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>38.12327442239341</v>
+        <v>28.37213825540323</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>35.44235141397759</v>
+        <v>28.37213825171328</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>44.73403837478365</v>
+        <v>28.37213827095917</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>49.24981542337547</v>
+        <v>28.37213827626435</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.22406509639553</v>
+        <v>28.37213822165378</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.17689082972514</v>
+        <v>28.37213826738519</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>48.51776496594741</v>
+        <v>28.37213828133036</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.7105008669413</v>
+        <v>28.37213823564241</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.56505317580238</v>
+        <v>28.37213823224383</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.86026158224495</v>
+        <v>28.37213825255533</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>44.32029085267233</v>
+        <v>28.37213825824551</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>15.29947562002233</v>
+        <v>28.37213820133211</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.09644342851917</v>
+        <v>28.37213824973736</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.21953038976104</v>
+        <v>28.3721382638706</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.20208885380751</v>
+        <v>28.37213821532324</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.3226032286212</v>
+        <v>28.37213825429334</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.30578048713129</v>
+        <v>28.37213826599672</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.01705406660851</v>
+        <v>28.3721382162761</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.51432338479638</v>
+        <v>28.37213826040623</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.29480192268358</v>
+        <v>28.37213827365926</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>21.47575743948188</v>
+        <v>28.37213823173926</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>39.71507149889596</v>
+        <v>28.37213827107188</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>45.74961184372205</v>
+        <v>28.37213828288413</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>43.16408644661323</v>
+        <v>28.37213827869859</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.64096358801349</v>
+        <v>28.37213829838734</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>57.22467474006511</v>
+        <v>28.37213830369696</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.36334132860086</v>
+        <v>28.37213824700586</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>49.0607547458399</v>
+        <v>28.37213829465712</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.46809629150883</v>
+        <v>28.37213830848418</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.33048050061434</v>
+        <v>28.37213824063756</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.2643950815181</v>
+        <v>28.37213823708713</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>41.52863836957643</v>
+        <v>28.37213825722958</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.96923851245778</v>
+        <v>28.37213826288586</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>16.97718784744318</v>
+        <v>28.37213820617962</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.79622076272417</v>
+        <v>28.37213825443417</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>45.87433399603509</v>
+        <v>28.3721382684091</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.62613861769378</v>
+        <v>28.37213821975759</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.75206485784649</v>
+        <v>28.37213825860943</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.69457797364198</v>
+        <v>28.37213827018806</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.75876786390514</v>
+        <v>28.37213822127744</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.26228026965965</v>
+        <v>28.37213826527364</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.99665086597228</v>
+        <v>28.37213827838541</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>23.23067511683198</v>
+        <v>28.3721382367276</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>41.47561515015332</v>
+        <v>28.37213827594084</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>47.4691316363897</v>
+        <v>28.37213828762719</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>44.95293514423201</v>
+        <v>28.37213828328852</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.39399642759631</v>
+        <v>28.37213830282117</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.95390613008038</v>
+        <v>28.37213830808892</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.13863803814989</v>
+        <v>28.37213825159731</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>50.84502372891167</v>
+        <v>28.37213829911694</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>58.20104375342688</v>
+        <v>28.37213831277498</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>33.92023396979853</v>
+        <v>28.37213822228202</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.84235976477385</v>
+        <v>28.37213821880579</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>39.20447298264747</v>
+        <v>28.37213823887803</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>43.64896625893532</v>
+        <v>28.37213824464584</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.50908407002706</v>
+        <v>28.37213818869077</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.32591532595687</v>
+        <v>28.37213823623524</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>43.43446880641513</v>
+        <v>28.37213825054858</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.32456262978673</v>
+        <v>28.37213820382701</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.48030970302041</v>
+        <v>28.37213824206819</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>39.45146424955253</v>
+        <v>28.37213825391522</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.696014525112705</v>
+        <v>28.37213820415716</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>30.23291221769672</v>
+        <v>28.37213824746185</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.99982210571869</v>
+        <v>28.37213826087755</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.27662015307173</v>
+        <v>28.37213821905092</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>38.55109637517874</v>
+        <v>28.37213825764783</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>44.57349100758086</v>
+        <v>28.37213826960507</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.07236923290744</v>
+        <v>28.37213826536582</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>51.61919191049746</v>
+        <v>28.37213828483485</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>56.19237198315982</v>
+        <v>28.37213829021609</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.21322304444562</v>
+        <v>28.37213823438135</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>47.94472966376868</v>
+        <v>28.37213828122899</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>55.34160401442649</v>
+        <v>28.37213829523442</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>5.042356715362278</v>
+        <v>28.37213808416895</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.27553403468302</v>
+        <v>28.37213811681185</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.78857970284717</v>
+        <v>28.37213812689603</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.5952506806961928</v>
+        <v>28.37213808113672</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>15.55802221360273</v>
+        <v>28.37213811810188</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>20.67461840109952</v>
+        <v>28.37213812952131</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.087067888286523</v>
+        <v>28.37213808934977</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>20.39931126323821</v>
+        <v>28.37213812229633</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.95357662616059</v>
+        <v>28.37213813247432</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>21.36390458534201</v>
+        <v>28.37213813332136</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.96155773721974</v>
+        <v>28.37213814983601</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>31.20507648714624</v>
+        <v>28.37213815459558</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.315509462813583</v>
+        <v>28.37213810908878</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.47772003886909</v>
+        <v>28.37213814887344</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.29661730760313</v>
+        <v>28.37213816089996</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>4.703909326375804</v>
+        <v>28.37213814412224</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.11637390652827</v>
+        <v>28.37213818108514</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.57157744956975</v>
+        <v>28.37213819281412</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.541156503606469</v>
+        <v>28.37213814035498</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.02573906465413</v>
+        <v>28.37213818221215</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.20635144620446</v>
+        <v>28.37213819549417</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.987983283141688</v>
+        <v>28.37213815313509</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.50768793216833</v>
+        <v>28.37213819044184</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.850484543661111</v>
+        <v>28.3721381012509</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.60272572215674</v>
+        <v>28.3721381353015</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.15523206598509</v>
+        <v>28.37213814533498</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.155108764881891</v>
+        <v>28.3721380999343</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>20.70525102680112</v>
+        <v>28.37213813849355</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.86647902107119</v>
+        <v>28.37213814985556</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.90901585593863</v>
+        <v>28.3721381089452</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.74417511600965</v>
+        <v>28.37213814331256</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>30.33816594416541</v>
+        <v>28.37213815343936</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.86946376516152</v>
+        <v>28.37213815415184</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.63718318356696</v>
+        <v>28.37213817108742</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.93166456675462</v>
+        <v>28.37213817586759</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.30850352139187</v>
+        <v>28.37213812842836</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.12188386786153</v>
+        <v>28.37213816990721</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.98285771555427</v>
+        <v>28.3721381818227</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>9.472580083082239</v>
+        <v>28.37213816510972</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.47644608869966</v>
+        <v>28.3721382036722</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>31.99357395533512</v>
+        <v>28.37213821537359</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>3.088776442682761</v>
+        <v>28.37213816332164</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.32499129804133</v>
+        <v>28.37213820699018</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.57564947372547</v>
+        <v>28.37213822024095</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>11.94360405098229</v>
+        <v>28.37213817704147</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.05915423253858</v>
+        <v>28.37213821596267</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.854763031001202</v>
+        <v>28.37213810589185</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.63228195382681</v>
+        <v>28.372138139826</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.15461886168378</v>
+        <v>28.37213814975485</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.423977101059059</v>
+        <v>28.37213810510346</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.00286572856017</v>
+        <v>28.37213814353084</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.1298551529482</v>
+        <v>28.37213815477437</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.18991252269214</v>
+        <v>28.37213811413882</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>27.05074416374702</v>
+        <v>28.37213814838864</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>31.61426331940111</v>
+        <v>28.37213815840985</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.22560891317099</v>
+        <v>28.37213815901097</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.97957580224161</v>
+        <v>28.37213817581449</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.25876778776986</v>
+        <v>28.3721381805657</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>14.64033620347731</v>
+        <v>28.37213813326076</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>31.49204341799039</v>
+        <v>28.37213817461431</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.31140032820188</v>
+        <v>28.37213818638613</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.71824115530436</v>
+        <v>28.37213816969412</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.73663327221247</v>
+        <v>28.37213820812421</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.22054694098944</v>
+        <v>28.37213821971156</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>4.651942980682758</v>
+        <v>28.37213816848294</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.90470591987255</v>
+        <v>28.37213821200157</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.11769776878329</v>
+        <v>28.37213822512321</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>13.51776011448855</v>
+        <v>28.37213818219915</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>30.64812371748996</v>
+        <v>28.37213822098673</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8.648973994564315</v>
+        <v>28.37213809227949</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.40638298581425</v>
+        <v>28.37213812565338</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.9412397115725</v>
+        <v>28.37213813582574</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>4.572180137619444</v>
+        <v>28.37213809050435</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.12793086921903</v>
+        <v>28.37213812829729</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.26922223654467</v>
+        <v>28.37213813981658</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.43993716339602</v>
+        <v>28.3721380990275</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.27996762584856</v>
+        <v>28.37213813271185</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.85617418520126</v>
+        <v>28.37213814297884</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.40409147880903</v>
+        <v>28.37213814354067</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.21017630917643</v>
+        <v>28.37213816025608</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.49215263437872</v>
+        <v>28.37213816510279</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.80221622908059</v>
+        <v>28.37213811850706</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.60369997796769</v>
+        <v>28.37213815922984</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>35.45272961216126</v>
+        <v>28.37213817131328</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9.044875658201118</v>
+        <v>28.37213815412115</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.07842864719304</v>
+        <v>28.3721381919152</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.57623707837303</v>
+        <v>28.3721382037665</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.216376192904548</v>
+        <v>28.37213815172646</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>21.48598686205831</v>
+        <v>28.37213819452483</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.71480173892486</v>
+        <v>28.37213820794536</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.20119982148393</v>
+        <v>28.37213816489267</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.34634795733067</v>
+        <v>28.3721382030383</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.00924416119803</v>
+        <v>28.37213820227993</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>23.80375924100091</v>
+        <v>28.37213819972459</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.7318838525896</v>
+        <v>28.37213821906933</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.89420462300724</v>
+        <v>28.37213822455311</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.086323087433815</v>
+        <v>28.37213817101129</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.85374415776772</v>
+        <v>28.37213821653468</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.537508838038</v>
+        <v>28.37213823037925</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.06292876691484</v>
+        <v>28.372138186961</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.297799688021</v>
+        <v>28.37213822350192</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>33.96324352137786</v>
+        <v>28.37213823496591</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>4.7820546765433</v>
+        <v>28.37213818526241</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.27819013579331</v>
+        <v>28.37213822664173</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.6985377495349</v>
+        <v>28.37213823962366</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.70743301702571</v>
+        <v>28.37213819936015</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.05579882871793</v>
+        <v>28.37213823624099</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.76978484905171</v>
+        <v>28.37213824781162</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>35.05659589970302</v>
+        <v>28.37213824458494</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.16303327956713</v>
+        <v>28.37213826332091</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>48.48414804047428</v>
+        <v>28.37213826848225</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>18.88768413486557</v>
+        <v>28.37213821506483</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>40.52556090413496</v>
+        <v>28.37213825985406</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>47.52065190966069</v>
+        <v>28.37213827349105</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>34.62307156489985</v>
+        <v>28.37213822777291</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.4931802556865</v>
+        <v>28.37213822476638</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.61164044013393</v>
+        <v>28.37213824455698</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>43.84714809492017</v>
+        <v>28.37213825006635</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>15.23168348205984</v>
+        <v>28.37213819441989</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.74496285686799</v>
+        <v>28.37213824187112</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>43.49748027721729</v>
+        <v>28.37213825562078</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.52703072820874</v>
+        <v>28.37213820892748</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.3462854537801</v>
+        <v>28.37213824705697</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.06402353057863</v>
+        <v>28.37213825846402</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.11567307797787</v>
+        <v>28.37213820923524</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.2731444243473</v>
+        <v>28.37213825241346</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>37.75267795092311</v>
+        <v>28.37213826533092</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>21.41580594872433</v>
+        <v>28.37213822428793</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>39.35290755613975</v>
+        <v>28.37213826277211</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>45.1195935880523</v>
+        <v>28.37213827428528</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>42.49370950380357</v>
+        <v>28.37213827056177</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>51.78036620206841</v>
+        <v>28.37213828973749</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>56.16559346677501</v>
+        <v>28.37213829489929</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.75564744126396</v>
+        <v>28.37213823944678</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>48.12403637156113</v>
+        <v>28.37213828613506</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>55.18069003600654</v>
+        <v>28.37213829964345</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.17852078653875</v>
+        <v>28.37213823268187</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.12542251886886</v>
+        <v>28.37213822952369</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>41.21301777337407</v>
+        <v>28.3721382491497</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>45.43004616265746</v>
+        <v>28.37213825462499</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.84620472163542</v>
+        <v>28.37213819918646</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>38.37964509312448</v>
+        <v>28.37213824648909</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>45.08924426399429</v>
+        <v>28.37213826008133</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>17.90036423206332</v>
+        <v>28.37213821328671</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.7240980918207</v>
+        <v>28.37213825130048</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.40255372618275</v>
+        <v>28.37213826258344</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>12.80013784120461</v>
+        <v>28.37213821415498</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.96278989756668</v>
+        <v>28.37213825720216</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.39778087683591</v>
+        <v>28.37213826997909</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>23.11036062729773</v>
+        <v>28.37213822919347</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.05214114968394</v>
+        <v>28.37213826756086</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>46.77919676934623</v>
+        <v>28.37213827894877</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>44.22035420001899</v>
+        <v>28.37213827507214</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>53.47135113760627</v>
+        <v>28.37213829409615</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>57.83348359077803</v>
+        <v>28.37213829921596</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.47213843426104</v>
+        <v>28.37213824396353</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>49.84793391926069</v>
+        <v>28.3721382905226</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>56.85515412951851</v>
+        <v>28.37213830386229</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.89077236659138</v>
+        <v>28.37213821499985</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.82229395037358</v>
+        <v>28.37213821193688</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.00722239718709</v>
+        <v>28.37213823148765</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>43.22712144256161</v>
+        <v>28.37213823707065</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>14.4866086356279</v>
+        <v>28.37213818237214</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.02480270035618</v>
+        <v>28.37213822896323</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.76101667080923</v>
+        <v>28.37213824289137</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.70707076791862</v>
+        <v>28.37213819793637</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.56505891637317</v>
+        <v>28.37213823533917</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.26930195807013</v>
+        <v>28.37213824689183</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.860358201424265</v>
+        <v>28.37213819763753</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.06144101933453</v>
+        <v>28.37213823999284</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.52573408470849</v>
+        <v>28.37213825307519</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.28313484066561</v>
+        <v>28.37213821214923</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.25894739127007</v>
+        <v>28.37213824989997</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.01200129009368</v>
+        <v>28.37213826156011</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>41.46358257608655</v>
+        <v>28.37213825780103</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.81968258673027</v>
+        <v>28.37213827675538</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>55.19489144413184</v>
+        <v>28.37213828198605</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.66064753465331</v>
+        <v>28.37213822738347</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>47.06784956388384</v>
+        <v>28.37213827326702</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>54.11254190351917</v>
+        <v>28.37213828695315</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.27161445506265</v>
+        <v>28.37213808338175</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>20.01976870639064</v>
+        <v>28.37213811915495</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.03777740877765</v>
+        <v>28.37213813016006</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>0.7689004273704469</v>
+        <v>28.37213808063737</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.44478599372834</v>
+        <v>28.37213812114731</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.13387216047594</v>
+        <v>28.37213813360961</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>7.924253870488581</v>
+        <v>28.37213808985192</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.76082077103842</v>
+        <v>28.3721381259579</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.82467624622831</v>
+        <v>28.37213813706539</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.75595605904587</v>
+        <v>28.37213813728797</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.11464925437483</v>
+        <v>28.37213815538493</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.69611236652811</v>
+        <v>28.37213816058064</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.311779898942312</v>
+        <v>28.37213811056065</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.27689619933633</v>
+        <v>28.37213815409756</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.75403420894347</v>
+        <v>28.37213816721435</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.511819536791918</v>
+        <v>28.3721381506814</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.77240355848385</v>
+        <v>28.37213819119653</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.74825935034594</v>
+        <v>28.3721382039615</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.9622962668533361</v>
+        <v>28.37213814717246</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.6953012733366</v>
+        <v>28.37213819305221</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.46584336837235</v>
+        <v>28.37213820750739</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>8.479065263052053</v>
+        <v>28.37213816142695</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.85917788818583</v>
+        <v>28.37213820231898</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.517035361577971</v>
+        <v>28.37213810234213</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.8378466814351</v>
+        <v>28.3721381396509</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.89622033280121</v>
+        <v>28.37213815059543</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.841703565265213</v>
+        <v>28.37213810147037</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.16560644152574</v>
+        <v>28.3721381437192</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.90034133125422</v>
+        <v>28.3721381561129</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>13.28599718267913</v>
+        <v>28.37213811156156</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.69947204160429</v>
+        <v>28.3721381492174</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.80395744416948</v>
+        <v>28.37213816026374</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.87064633371537</v>
+        <v>28.37213816033326</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.41693853708685</v>
+        <v>28.37213817888509</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.05298434041067</v>
+        <v>28.37213818410016</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.86057262284047</v>
+        <v>28.37213813196839</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>33.54275119752307</v>
+        <v>28.37213817735074</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>40.06309966246964</v>
+        <v>28.37213819033875</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.81796590004819</v>
+        <v>28.3721381738865</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.72992575292289</v>
+        <v>28.37213821614382</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.76958270985227</v>
+        <v>28.37213822887193</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.291152513409308</v>
+        <v>28.37213817253815</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.68594440536605</v>
+        <v>28.37213822039077</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.52864875923321</v>
+        <v>28.37213823480422</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>15.09165256994826</v>
+        <v>28.37213818782156</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.12803525866913</v>
+        <v>28.37213823047198</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.61464550888275</v>
+        <v>28.37213810733767</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.96205602979406</v>
+        <v>28.3721381445189</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.98575049490684</v>
+        <v>28.37213815534849</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.22703652059559</v>
+        <v>28.37213810703933</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.58119660033315</v>
+        <v>28.37213814914373</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>30.27657792585687</v>
+        <v>28.37213816140728</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>14.68439329445431</v>
+        <v>28.37213811715341</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.12489328054682</v>
+        <v>28.37213815468052</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>35.19435399101187</v>
+        <v>28.37213816561086</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.35092771505803</v>
+        <v>28.37213816556774</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.88140900959142</v>
+        <v>28.37213818397436</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.49994642260409</v>
+        <v>28.37213818915716</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.31442958127971</v>
+        <v>28.37213813717352</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>35.03742062919867</v>
+        <v>28.37213818241871</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>41.51021492289807</v>
+        <v>28.37213819524931</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>13.16771934989862</v>
+        <v>28.37213817879017</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.09403213371965</v>
+        <v>28.37213822090195</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>38.09603260539687</v>
+        <v>28.37213823350479</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>6.985723288809979</v>
+        <v>28.37213817806775</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.39687926366797</v>
+        <v>28.37213822575556</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>35.19688119880796</v>
+        <v>28.37213824002715</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.79782877153228</v>
+        <v>28.37213819334168</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.84886833394357</v>
+        <v>28.3721382358452</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>9.275856434062089</v>
+        <v>28.37213809237672</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.60375652558862</v>
+        <v>28.37213812895004</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.64514944499948</v>
+        <v>28.37213814004983</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>5.187505736498878</v>
+        <v>28.37213809101468</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.51916326705416</v>
+        <v>28.37213813243069</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.23472648606601</v>
+        <v>28.37213814500021</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>12.75532470739376</v>
+        <v>28.37213810056725</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.17557047794038</v>
+        <v>28.3721381374808</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.2629492933976</v>
+        <v>28.37213814868385</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.34669524118258</v>
+        <v>28.37213814859679</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.93594253602132</v>
+        <v>28.37213816691114</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>40.55922140454424</v>
+        <v>28.3721381722013</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>14.29298808566104</v>
+        <v>28.3721381209849</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.96375545450007</v>
+        <v>28.37213816554639</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>39.47359597000139</v>
+        <v>28.37213817872444</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>11.34704488607868</v>
+        <v>28.37213816171821</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.29318558765</v>
+        <v>28.3721382031421</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>36.3134827050663</v>
+        <v>28.3721382160377</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>4.340250080203703</v>
+        <v>28.37213815971647</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.77349994804452</v>
+        <v>28.37213820662529</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.59431944032851</v>
+        <v>28.3721382212284</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>14.28236982602792</v>
+        <v>28.37213817438911</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>33.35284553784756</v>
+        <v>28.37213821619833</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>32.88583338012072</v>
+        <v>28.37213821520269</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.18638346851389</v>
+        <v>28.37213821170264</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>38.11918884819468</v>
+        <v>28.37213823292316</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.65977199765656</v>
+        <v>28.37213823889618</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.9153604729855</v>
+        <v>28.37213818004482</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.95996661133633</v>
+        <v>28.37213822988567</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>42.29063360037288</v>
+        <v>28.37213824494086</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>12.50990770811629</v>
+        <v>28.37213819605447</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.61885770994198</v>
+        <v>28.37213823607126</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>37.86483371220591</v>
+        <v>28.37213824855916</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.087917216104433</v>
+        <v>28.372138194716</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.70398632811361</v>
+        <v>28.37213824003143</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.78223335138293</v>
+        <v>28.37213825417285</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.98821594879552</v>
+        <v>28.37213821032915</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.22316552038653</v>
+        <v>28.3721382507182</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>42.52264595922565</v>
+        <v>28.37213826332227</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.45696744301367</v>
+        <v>28.37213825910083</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>49.59617436237044</v>
+        <v>28.37213827965714</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>54.32546505648146</v>
+        <v>28.37213828528586</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>21.66112591426205</v>
+        <v>28.37213822663924</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>45.61013632394253</v>
+        <v>28.37213827563944</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>53.32398126711647</v>
+        <v>28.37213829048179</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.21893539936172</v>
+        <v>28.37213824331849</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.60526584879092</v>
+        <v>28.37213823931897</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.7478183445928</v>
+        <v>28.37213826102004</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.36637340026289</v>
+        <v>28.37213826701688</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>18.73609121936666</v>
+        <v>28.37213820587435</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>42.60070362092188</v>
+        <v>28.37213825781146</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>50.00223094233523</v>
+        <v>28.37213827275371</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.54044481383725</v>
+        <v>28.37213822026435</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.29230971125321</v>
+        <v>28.37213826200996</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.5930023704741</v>
+        <v>28.37213827443115</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>13.07494465714433</v>
+        <v>28.37213822111208</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>35.41858788690272</v>
+        <v>28.37213826838524</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>42.55875898379194</v>
+        <v>28.37213828245111</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.38610343331626</v>
+        <v>28.37213823776666</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.26875627860189</v>
+        <v>28.3721382799006</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>50.62337446224373</v>
+        <v>28.37213829243734</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.65585939551426</v>
+        <v>28.372138287663</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>57.99403255313571</v>
+        <v>28.37213830869433</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>62.79234273063155</v>
+        <v>28.3721383143203</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.23618033464399</v>
+        <v>28.37213825345984</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>53.98791099505246</v>
+        <v>28.37213830452365</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>61.76633670440489</v>
+        <v>28.37213831921898</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>41.90176568245609</v>
+        <v>28.37213824856528</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.37396680084365</v>
+        <v>28.37213824440875</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>47.48173637389338</v>
+        <v>28.37213826592813</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>52.07945226053884</v>
+        <v>28.37213827188706</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.48624407692591</v>
+        <v>28.37213821097604</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.37115534657593</v>
+        <v>28.37213826274946</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>51.72412692674708</v>
+        <v>28.37213827751921</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>20.02833352264466</v>
+        <v>28.37213822492391</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.78372695339135</v>
+        <v>28.37213826654176</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>46.0402472513639</v>
+        <v>28.37213827882712</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>14.90078391030816</v>
+        <v>28.37213822638005</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.24854459222162</v>
+        <v>28.37213827350853</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>44.33862969801012</v>
+        <v>28.3721382874206</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.22269984906379</v>
+        <v>28.37213824301345</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.1090907205288</v>
+        <v>28.37213828501845</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>52.41914565875675</v>
+        <v>28.3721382974181</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>49.52675736419626</v>
+        <v>28.37213829248461</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>59.82481695114444</v>
+        <v>28.3721383133483</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>64.59745661766003</v>
+        <v>28.37213831892783</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.09677204507154</v>
+        <v>28.37213825829058</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>55.85503131537331</v>
+        <v>28.37213830921117</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>63.57794602059617</v>
+        <v>28.37213832372224</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.42421175522898</v>
+        <v>28.3721382292139</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>34.87735462282808</v>
+        <v>28.37213822516031</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>45.09400256514965</v>
+        <v>28.3721382466025</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>49.69611189080833</v>
+        <v>28.37213825268258</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.92740970550325</v>
+        <v>28.37213819256737</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.82121832815061</v>
+        <v>28.37213824357281</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>49.20684153799316</v>
+        <v>28.37213825871671</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>17.63377543726823</v>
+        <v>28.37213820811544</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.42955733519329</v>
+        <v>28.37213824907244</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>43.71723913814122</v>
+        <v>28.37213826165565</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.69887274681986</v>
+        <v>28.37213820831208</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>34.09196838955773</v>
+        <v>28.37213825469221</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>41.21745282545133</v>
+        <v>28.37213826894157</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>23.14303087280198</v>
+        <v>28.37213822437067</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>43.06958475954333</v>
+        <v>28.37213826570867</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>49.41105759559305</v>
+        <v>28.37213827840894</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.52812737227773</v>
+        <v>28.37213827360547</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.94399979320372</v>
+        <v>28.37213829439721</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>61.73162922151157</v>
+        <v>28.37213830010067</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.03798806991558</v>
+        <v>28.37213824016206</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>52.83405477636068</v>
+        <v>28.37213829035322</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>60.6013139190765</v>
+        <v>28.3721383052483</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.347931237436267</v>
+        <v>28.3721380902756</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.04578342390958</v>
+        <v>28.37213812444502</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.07160294473739</v>
+        <v>28.37213813516366</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>3.27801929797808</v>
+        <v>28.37213808822391</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.76472968125881</v>
+        <v>28.37213812691771</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.46238685589599</v>
+        <v>28.3721381390556</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.02785818859256</v>
+        <v>28.3721380970253</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>23.80584265645168</v>
+        <v>28.37213813151258</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.87750346112576</v>
+        <v>28.37213814233092</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.00462975360579</v>
+        <v>28.37213814255286</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.88348178826318</v>
+        <v>28.37213815996187</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.48673463976742</v>
+        <v>28.37213816505209</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>11.64724954664345</v>
+        <v>28.3721381171942</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.28110544258311</v>
+        <v>28.37213815873042</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>34.79776573319351</v>
+        <v>28.37213817148509</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>7.879883015807685</v>
+        <v>28.37213815555361</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.98183170052233</v>
+        <v>28.3721381942594</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.97688464971132</v>
+        <v>28.37213820668672</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.03407583903461</v>
+        <v>28.37213815282781</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.37979163119575</v>
+        <v>28.37213819665865</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.17192358905351</v>
+        <v>28.37213821073147</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.853418044262519</v>
+        <v>28.37213816638588</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.06577106070836</v>
+        <v>28.37213820545173</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>11.55798545216974</v>
+        <v>28.37213810898461</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.80062380144601</v>
+        <v>28.37213814461963</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>30.870182048913</v>
+        <v>28.37213815529149</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>8.291658519121057</v>
+        <v>28.3721381087489</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.39483003396627</v>
+        <v>28.37213814910237</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>30.14195843502737</v>
+        <v>28.37213816118729</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>15.32810059404503</v>
+        <v>28.37213811843073</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.6548903132818</v>
+        <v>28.37213815439725</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>34.77058680798127</v>
+        <v>28.37213816516838</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.03299670398141</v>
+        <v>28.37213816526854</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.09076890835979</v>
+        <v>28.37213818311087</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.75028795857881</v>
+        <v>28.37213818822205</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.13163162688966</v>
+        <v>28.37213813832257</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.44662711416976</v>
+        <v>28.37213818161892</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.01133551075289</v>
+        <v>28.3721381942619</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>13.10379984984828</v>
+        <v>28.37213817836886</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.82578996453825</v>
+        <v>28.37213821873605</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.88870161199036</v>
+        <v>28.37213823114325</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.177969383247291</v>
+        <v>28.37213817773616</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.22540305888836</v>
+        <v>28.37213822344838</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.09429532200487</v>
+        <v>28.37213823749842</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>16.35125310734104</v>
+        <v>28.37213819232228</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>34.18828175156274</v>
+        <v>28.37213823306499</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.63609437300658</v>
+        <v>28.37213811384695</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.90762548049522</v>
+        <v>28.37213814936297</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.94344949079069</v>
+        <v>28.37213815992568</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>9.645436354269076</v>
+        <v>28.37213811415772</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.78146056755337</v>
+        <v>28.37213815437643</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>31.49030949071422</v>
+        <v>28.37213816633775</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>16.69841361314127</v>
+        <v>28.37213812386998</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.05453577013909</v>
+        <v>28.37213815971639</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.13616263528956</v>
+        <v>28.37213817037737</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.48527530340691</v>
+        <v>28.37213817036765</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>39.52954311812202</v>
+        <v>28.37213818807123</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>43.17190403375853</v>
+        <v>28.3721381931516</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.55341430198725</v>
+        <v>28.37213814338468</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>35.91193289171849</v>
+        <v>28.37213818655439</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>42.43013536560385</v>
+        <v>28.37213819904804</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.42723215497116</v>
+        <v>28.37213818313652</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.16580608026231</v>
+        <v>28.37213822336704</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.19204468018097</v>
+        <v>28.37213823565577</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>8.831632605565481</v>
+        <v>28.37213818310014</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.89795524945492</v>
+        <v>28.37213822865758</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.72526192138042</v>
+        <v>28.37213824257346</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.02112365628879</v>
+        <v>28.3721381976869</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.87505256931051</v>
+        <v>28.37213823829165</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.30699316332549</v>
+        <v>28.3721380991312</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.54939683390261</v>
+        <v>28.37213813407108</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>30.60354314273686</v>
+        <v>28.37213814488935</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.643586429077221</v>
+        <v>28.37213809841608</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>23.74622131363971</v>
+        <v>28.37213813798235</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.47595380899224</v>
+        <v>28.37213815023307</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>14.79540386522424</v>
+        <v>28.37213810756082</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.12158744247185</v>
+        <v>28.37213814282572</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.22176079942551</v>
+        <v>28.37213815374463</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.50557635377245</v>
+        <v>28.37213815366439</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>37.6019509799584</v>
+        <v>28.37213817128492</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>41.2489585520448</v>
+        <v>28.3721381764723</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.57107461289538</v>
+        <v>28.37213812744512</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>33.86616704177137</v>
+        <v>28.3721381699682</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.42163972050219</v>
+        <v>28.37213818279325</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>12.62231233557263</v>
+        <v>28.37213816638132</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>30.37036551823419</v>
+        <v>28.37213820596099</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.41578865743878</v>
+        <v>28.37213821852466</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>6.236903678971686</v>
+        <v>28.3721381651121</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.31360572603824</v>
+        <v>28.37213820993252</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>33.16273164179302</v>
+        <v>28.37213822415975</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>15.54045431004189</v>
+        <v>28.37213817909092</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.4034004626613</v>
+        <v>28.37213821903877</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.11183917482482</v>
+        <v>28.37213821799466</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.61664869759758</v>
+        <v>28.37213821456381</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.00015535965536</v>
+        <v>28.37213823499142</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.57865306340211</v>
+        <v>28.37213824084061</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.51202540616967</v>
+        <v>28.37213818446208</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>35.09441339014543</v>
+        <v>28.37213823205257</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.47383976838531</v>
+        <v>28.37213824667039</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.75158237243012</v>
+        <v>28.37213819930979</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>31.70615483120678</v>
+        <v>28.37213823756438</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.92492679120954</v>
+        <v>28.37213824967132</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>7.956235550159754</v>
+        <v>28.37213819862297</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.26544736147149</v>
+        <v>28.37213824194285</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.31251184054052</v>
+        <v>28.37213825565287</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>18.1844427446239</v>
+        <v>28.37213821348345</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.25600900174842</v>
+        <v>28.37213825209389</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.52798601360201</v>
+        <v>28.37213826431346</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>39.64431953798157</v>
+        <v>28.37213826013481</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.23434838148431</v>
+        <v>28.37213827992312</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>53.95552491673781</v>
+        <v>28.37213828541277</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>23.04106632347986</v>
+        <v>28.37213822925448</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>45.52729170353349</v>
+        <v>28.37213827605809</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>53.23752988262856</v>
+        <v>28.37213829040924</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.30269140207265</v>
+        <v>28.3721382455876</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.89154536330868</v>
+        <v>28.37213824169307</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.47603963856086</v>
+        <v>28.37213826257767</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>50.13401320891183</v>
+        <v>28.37213826845312</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>20.21446965726786</v>
+        <v>28.37213820986756</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>42.57664285566837</v>
+        <v>28.37213825945575</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>50.03246012467591</v>
+        <v>28.37213827398172</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.66600478908585</v>
+        <v>28.37213822308019</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.23288849824837</v>
+        <v>28.37213826298252</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>44.51057488257294</v>
+        <v>28.37213827504075</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.7972654697481</v>
+        <v>28.37213822450639</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>35.79940540738287</v>
+        <v>28.3721382696922</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>42.91314805167463</v>
+        <v>28.37213828334706</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.42967817621577</v>
+        <v>28.37213824040379</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.11809370581803</v>
+        <v>28.37213828067731</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>50.44944354089461</v>
+        <v>28.37213829284771</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>47.66188622194275</v>
+        <v>28.37213828815026</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>57.44296846967931</v>
+        <v>28.37213830838929</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>62.23487305599058</v>
+        <v>28.37213831387982</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>30.46145603723081</v>
+        <v>28.3721382555917</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.71128246991575</v>
+        <v>28.37213830435958</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>61.49166233112443</v>
+        <v>28.37213831858666</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.95245254173328</v>
+        <v>28.3721382506947</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>37.62346406775039</v>
+        <v>28.37213824664686</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>47.17609934733505</v>
+        <v>28.3721382673572</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>51.81341455014681</v>
+        <v>28.37213827319673</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>21.92433315174132</v>
+        <v>28.37213821482623</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.30937659801393</v>
+        <v>28.37213826426148</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>51.71776167986184</v>
+        <v>28.37213827862466</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>21.11862945386304</v>
+        <v>28.37213822761081</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.69143324623734</v>
+        <v>28.37213826739292</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.92644157631386</v>
+        <v>28.37213827932316</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>16.57278738591772</v>
+        <v>28.37213822961698</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>37.58175048705705</v>
+        <v>28.37213827466665</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.64710402099922</v>
+        <v>28.37213828817657</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>27.22064943812511</v>
+        <v>28.37213824550295</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>45.91520860456889</v>
+        <v>28.37213828565513</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>52.20350388401413</v>
+        <v>28.37213829769635</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>49.48769310798757</v>
+        <v>28.37213829284427</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>59.23183782632465</v>
+        <v>28.3721383129223</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>63.99871317462781</v>
+        <v>28.37213831836882</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>32.27333908262169</v>
+        <v>28.37213826028794</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>55.53258274018123</v>
+        <v>28.37213830892163</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>63.25912583888754</v>
+        <v>28.37213832297545</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.50016512299972</v>
+        <v>28.37213823171932</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.15903737188552</v>
+        <v>28.37213822774621</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>44.81237835505067</v>
+        <v>28.37213824838833</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>49.45443157990682</v>
+        <v>28.37213825434799</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>19.41274878539529</v>
+        <v>28.37213819674043</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.79469334615942</v>
+        <v>28.37213824545099</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>49.23623261947134</v>
+        <v>28.37213826016831</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.76255916512168</v>
+        <v>28.37213821112469</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>37.36513048810309</v>
+        <v>28.37213825028282</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>43.63098143983133</v>
+        <v>28.37213826249188</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>13.44637692085453</v>
+        <v>28.37213821192116</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.48865399271841</v>
+        <v>28.37213825626423</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.58903858555203</v>
+        <v>28.37213827008989</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>24.20050011992592</v>
+        <v>28.37213822722685</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.92452754134855</v>
+        <v>28.37213826674925</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>49.24391889960913</v>
+        <v>28.37213827907188</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>46.54438565010653</v>
+        <v>28.37213827432334</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>56.39769948474414</v>
+        <v>28.37213829433923</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>61.17859802819652</v>
+        <v>28.37213829990706</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.28437266478688</v>
+        <v>28.37213824249371</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>52.56879479696106</v>
+        <v>28.37213829044104</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>60.33904264471812</v>
+        <v>28.37213830485715</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.133</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.309</v>
+        <v>18.856</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.047</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.396</v>
+        <v>16.026</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.026</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.778</v>
+        <v>14.54</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.37213808020474</v>
+        <v>-2.974169677285186</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.37213811566417</v>
+        <v>16.44513292079195</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.3721381264296</v>
+        <v>21.0315651557267</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.37213807735884</v>
+        <v>-2.497459659644615</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.37213811751346</v>
+        <v>13.55241295594097</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.37213812970434</v>
+        <v>17.19161315646567</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.37213808627804</v>
+        <v>5.017142864637176</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.37213812206733</v>
+        <v>20.30511009473695</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.3721381329329</v>
+        <v>24.60187911740105</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.37213813325224</v>
+        <v>20.11024188866837</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.37213815106798</v>
+        <v>26.48446661884546</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.3721381561126</v>
+        <v>30.04507266261637</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.37213810675448</v>
+        <v>2.302008529463176</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.37213814990513</v>
+        <v>17.71906450751675</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.37213816277161</v>
+        <v>24.73860274616858</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.37213814619445</v>
+        <v>-2.427707484026971</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.37213818637017</v>
+        <v>21.11330662311222</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.37213819883394</v>
+        <v>27.53263710736949</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.37213814252191</v>
+        <v>-8.527701795693456</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.3721381880173</v>
+        <v>10.26426938037797</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.37213820213141</v>
+        <v>16.03462082152495</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.37213815650132</v>
+        <v>2.381596394717146</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.37213819705076</v>
+        <v>21.70668846785906</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.37213809833716</v>
+        <v>1.326337337627994</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.37213813530325</v>
+        <v>23.70203536649234</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.3721381460106</v>
+        <v>28.10126117625857</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.37213809731664</v>
+        <v>5.60632893031266</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.3721381391774</v>
+        <v>24.82888249071762</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.37213815130252</v>
+        <v>28.24473822018562</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.37213810706789</v>
+        <v>14.55294070641164</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.37213814437784</v>
+        <v>32.54388504592589</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.3721381551848</v>
+        <v>36.64572291972232</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.37213815535982</v>
+        <v>34.83490133438846</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.37213817362573</v>
+        <v>41.54918576374401</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.37213817869414</v>
+        <v>45.11425118152179</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.37213812726329</v>
+        <v>13.92918610366965</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.37213817222593</v>
+        <v>32.79947854449406</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.3721381849684</v>
+        <v>39.64974652779737</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.37213816851363</v>
+        <v>4.252601201009778</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.37213821040036</v>
+        <v>31.24966207451839</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.37213822282916</v>
+        <v>37.53030264780121</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.37213816694899</v>
+        <v>3.119995518602298</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.37213821438195</v>
+        <v>25.63512962704354</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.37213822845645</v>
+        <v>31.20384131269494</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.37213818190872</v>
+        <v>15.8143298080579</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.3721382241851</v>
+        <v>38.29854857790905</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.3721381032059</v>
+        <v>-0.4766520356831769</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.37213814004221</v>
+        <v>22.51055828186179</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.37213815063507</v>
+        <v>27.08459252626614</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.37213810274458</v>
+        <v>5.19777119678761</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.3721381444584</v>
+        <v>25.10405525309674</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.37213815645386</v>
+        <v>28.71744567257771</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.37213811251422</v>
+        <v>14.17912447751925</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.3721381496932</v>
+        <v>32.76219699610463</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.3721381603846</v>
+        <v>37.03403931338394</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.37213816045179</v>
+        <v>35.49392287823668</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.37213817857412</v>
+        <v>42.23007131066716</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.37213818361171</v>
+        <v>46.01243090998108</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.37213813232931</v>
+        <v>13.97663662890495</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.37213817715212</v>
+        <v>33.69183570451664</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.37213818973771</v>
+        <v>40.70949718003502</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.37213817329449</v>
+        <v>2.764003855273995</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.37213821503376</v>
+        <v>30.46555376020977</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.37213822733791</v>
+        <v>36.96114302297399</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.37213817234174</v>
+        <v>3.242762668133242</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.37213821960771</v>
+        <v>26.55651245801478</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.37213823354105</v>
+        <v>32.36289680002823</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.37213818728607</v>
+        <v>16.00756189420745</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.37213822941361</v>
+        <v>39.168066577673</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.37213808878609</v>
+        <v>-2.837283181602206</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.37213812503019</v>
+        <v>18.68270435923798</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.37213813588154</v>
+        <v>23.99631957168793</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.37213808728184</v>
+        <v>1.856863774498553</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.37213812832504</v>
+        <v>20.17342496882038</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.37213814061321</v>
+        <v>24.58676952837583</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.3721380965177</v>
+        <v>9.445601727144293</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.37213813309896</v>
+        <v>26.69514464678794</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.37213814405126</v>
+        <v>31.69708793151582</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.37213814407921</v>
+        <v>27.27854216743431</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.37213816210733</v>
+        <v>33.89280632539341</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.3721381672416</v>
+        <v>38.17453432000509</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.3721381167124</v>
+        <v>7.58225323045194</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.37213816086817</v>
+        <v>25.67142073289291</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.37213817378616</v>
+        <v>33.444267103458</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.3721381567892</v>
+        <v>-0.4210527225842178</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.37213819785791</v>
+        <v>25.58573765316448</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.37213821044181</v>
+        <v>32.89939605975489</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.37213815458147</v>
+        <v>-1.782383413565519</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.37213820108809</v>
+        <v>19.68391548986116</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.37213821533822</v>
+        <v>26.40894419542464</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.37213816895537</v>
+        <v>9.360738761971554</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.37213821040611</v>
+        <v>30.98317629983402</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.37213820963048</v>
+        <v>27.37518217515165</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.37213820635184</v>
+        <v>21.42437054295289</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.37213822722613</v>
+        <v>32.19045278246664</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.37213823303292</v>
+        <v>37.05800059144285</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.37213817498249</v>
+        <v>1.35720028177883</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.37213822439185</v>
+        <v>25.64925867107246</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.37213823914229</v>
+        <v>32.74088414237138</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.37213819180565</v>
+        <v>-1.071914518433427</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.37213823151415</v>
+        <v>24.63728699111132</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.37213824371854</v>
+        <v>33.48461419106266</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.3721381903331</v>
+        <v>-5.704100012232093</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.37213823529941</v>
+        <v>15.70247700935925</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.37213824911978</v>
+        <v>23.3032940736509</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.37213820572984</v>
+        <v>8.342594072884221</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.37213824580773</v>
+        <v>29.65205409931495</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.37213825812565</v>
+        <v>37.85638803987685</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.37213825415654</v>
+        <v>35.39874893799879</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.37213827439171</v>
+        <v>46.48069693573955</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.37213827986919</v>
+        <v>53.26004729018765</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.37213822194779</v>
+        <v>8.045754141870081</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.37213827056979</v>
+        <v>35.39409922751967</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.37213828512434</v>
+        <v>45.00471335478105</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.37213823672952</v>
+        <v>43.82111909693388</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.3721382329674</v>
+        <v>40.41969269749054</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.37213825431806</v>
+        <v>51.40126340132282</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.37213826015335</v>
+        <v>56.29443212173126</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.37213819984994</v>
+        <v>17.12107574034073</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.37213825131883</v>
+        <v>45.59845153680385</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.37213826596076</v>
+        <v>52.4702575912803</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.3721382151532</v>
+        <v>9.086178492670211</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.37213825656125</v>
+        <v>38.21232948613382</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.37213826869938</v>
+        <v>46.79240423034014</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.37213821582034</v>
+        <v>9.826986709588502</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.37213826271124</v>
+        <v>34.89970372059497</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.37213827645659</v>
+        <v>42.18566860141036</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.37213823221381</v>
+        <v>25.9099580833926</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.37213827400706</v>
+        <v>50.34444727748469</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.37213828625811</v>
+        <v>58.28273993919808</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.37213828175933</v>
+        <v>58.77765991533167</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.37213830246507</v>
+        <v>70.07898417131588</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.37213830794344</v>
+        <v>76.77386844687597</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.37213824784372</v>
+        <v>28.19837946765703</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.37213829849574</v>
+        <v>59.57717988107682</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.37213831290567</v>
+        <v>68.92847847535947</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.37213824183222</v>
+        <v>44.90375078500726</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.37213823791815</v>
+        <v>41.59988999208208</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.37213825908999</v>
+        <v>52.52514212964357</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.3721382648886</v>
+        <v>57.70459059571068</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.37213820481444</v>
+        <v>17.75270222902283</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.37213825611741</v>
+        <v>47.19531514143063</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.37213827058744</v>
+        <v>54.25214178232407</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.37213821969458</v>
+        <v>8.909154360564024</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.37213826097311</v>
+        <v>38.74596765745945</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.37213827297569</v>
+        <v>47.46366324195607</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.37213822095645</v>
+        <v>11.37467568547079</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.37213826770068</v>
+        <v>37.2509071693698</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.37213828129252</v>
+        <v>44.7057544344437</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.37213823732318</v>
+        <v>27.5761141856497</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.3721382789857</v>
+        <v>52.69490942179168</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.37213829109993</v>
+        <v>60.77000565219967</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.3721382864471</v>
+        <v>61.47238863743127</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.37213830698794</v>
+        <v>72.72815559905897</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.37213831242095</v>
+        <v>79.64481125916549</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.37213825254267</v>
+        <v>30.32778929727737</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.3721383030496</v>
+        <v>62.6338074874765</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.37213831727532</v>
+        <v>72.12724861126067</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.37213822310707</v>
+        <v>37.52082006331544</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.3721382192982</v>
+        <v>30.93293217217218</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.37213824039077</v>
+        <v>41.82550106614035</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.37213824629862</v>
+        <v>47.67978775622099</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.37213818700695</v>
+        <v>9.159906238042542</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.37213823756078</v>
+        <v>36.66725802304982</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.37213825238824</v>
+        <v>44.606410342411</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.37213820344144</v>
+        <v>5.380906762691769</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.37213824407602</v>
+        <v>33.64882765664201</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.37213825636474</v>
+        <v>43.22326072667718</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.37213820346329</v>
+        <v>5.862285772182698</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.3721382494783</v>
+        <v>30.04733542223978</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.37213826339417</v>
+        <v>38.45299688215781</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.37213821928434</v>
+        <v>20.34850161071495</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.37213826029692</v>
+        <v>44.05095182503289</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.37213827269995</v>
+        <v>52.96035802594938</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.37213826817315</v>
+        <v>50.2199360780439</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.37213828864044</v>
+        <v>61.45852215521047</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.3721382941874</v>
+        <v>69.08437310992466</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.37213823499541</v>
+        <v>20.87523543732925</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.37213828479109</v>
+        <v>51.40397676857238</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.37213829938581</v>
+        <v>61.78295761863851</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.37213808618209</v>
+        <v>-2.361392163386849</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.3721381194952</v>
+        <v>14.46783648619417</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.37213812990884</v>
+        <v>19.18675773104064</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.3721380837991</v>
+        <v>-3.647099500037594</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.37213812152321</v>
+        <v>9.88400686175404</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.37213813331571</v>
+        <v>13.81134142395272</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.372138092258</v>
+        <v>3.516009708974646</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.372138125881</v>
+        <v>16.51092275921899</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.37213813639151</v>
+        <v>20.90208703828138</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.37213813696986</v>
+        <v>16.65939440046462</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.3721381539079</v>
+        <v>22.03956993217709</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.37213815882848</v>
+        <v>26.06733723313633</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.37213811234554</v>
+        <v>1.722697332871277</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.37213815286917</v>
+        <v>14.59694309889653</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.37213816527059</v>
+        <v>21.83877008214686</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.37213814882555</v>
+        <v>-4.187325277897536</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.3721381865903</v>
+        <v>16.5524132856151</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.37213819866162</v>
+        <v>23.40531728883555</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.37213814568699</v>
+        <v>-11.47061180766911</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.37213818845218</v>
+        <v>4.700123066221671</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.37213820212186</v>
+        <v>11.07255317045989</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.37213815882495</v>
+        <v>-1.616428999870784</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.372138196941</v>
+        <v>15.20619227832166</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.37213810404233</v>
+        <v>1.931663377657856</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.37213813878239</v>
+        <v>21.5696893441173</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.37213814915334</v>
+        <v>26.17316711734712</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.37213810342617</v>
+        <v>4.134105239806065</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.37213814276616</v>
+        <v>20.67308604455312</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.37213815451033</v>
+        <v>24.45979113525234</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.37213811272706</v>
+        <v>12.67078078777993</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.37213814779028</v>
+        <v>28.23531404045323</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.37213815825771</v>
+        <v>32.50122914404631</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.37213815872406</v>
+        <v>30.74040008398158</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.3721381760867</v>
+        <v>36.45178357549025</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.37213818103185</v>
+        <v>40.50951323264189</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.37213813256252</v>
+        <v>12.88484786441468</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.37213817480088</v>
+        <v>29.01502181398922</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.37213818709862</v>
+        <v>36.15776748073029</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.37213817070271</v>
+        <v>2.406186396314467</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.37213821008868</v>
+        <v>26.42878516831596</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.3721382221431</v>
+        <v>33.22686897555661</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.37213816959972</v>
+        <v>-0.2780358162162955</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.37213821420078</v>
+        <v>19.42131982099717</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.37213822785134</v>
+        <v>25.69105831000424</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.3721381837235</v>
+        <v>11.2856761863976</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.37213822347585</v>
+        <v>31.11186740279338</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.37213810878458</v>
+        <v>0.3351119021400066</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.37213814340654</v>
+        <v>20.56911022112598</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.37213815367132</v>
+        <v>25.3540902828296</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.37213810870071</v>
+        <v>3.851146570824675</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.37213814790697</v>
+        <v>21.05441695953464</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.37213815953092</v>
+        <v>25.04493485847231</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.37213811802976</v>
+        <v>12.42459066084668</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.37213815297378</v>
+        <v>28.56572377191506</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.37213816333405</v>
+        <v>33.00837038450997</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.3721381636912</v>
+        <v>31.47221644421111</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.37213818091839</v>
+        <v>37.21609881444344</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.37213818583465</v>
+        <v>41.48248089077283</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.37213813749471</v>
+        <v>13.0265330651183</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.37213817960715</v>
+        <v>29.97063134148808</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.37213819175953</v>
+        <v>37.28751475002203</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.37213817536871</v>
+        <v>1.103367638679313</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.37213821461985</v>
+        <v>25.80654428458876</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.37213822655924</v>
+        <v>32.82623056117859</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.37213817484851</v>
+        <v>-0.05573663681835583</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.37213821929689</v>
+        <v>20.41216603864522</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.37213823281719</v>
+        <v>26.92576681543895</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.37213818897084</v>
+        <v>11.58007493017445</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.3721382285871</v>
+        <v>32.05924392037909</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.37213809460431</v>
+        <v>-1.889389645580597</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.37213812866379</v>
+        <v>16.94295148420796</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.37213813917352</v>
+        <v>22.39509104788041</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.37213809351111</v>
+        <v>0.7989403603196727</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.37213813208042</v>
+        <v>16.48824303998036</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.37213814398175</v>
+        <v>21.19357948624975</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.37213810229606</v>
+        <v>8.042294967559382</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.37213813667238</v>
+        <v>22.9066844492687</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.37213814727988</v>
+        <v>28.0097611496809</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.37213814756921</v>
+        <v>23.76200912500257</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.37213816471258</v>
+        <v>29.38885251554267</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.37213816972806</v>
+        <v>34.1184855040491</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.37213812211271</v>
+        <v>7.037334276704353</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.37213816359369</v>
+        <v>22.4429073980661</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.37213817606225</v>
+        <v>30.44593766003821</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.37213815918224</v>
+        <v>-1.939312704908033</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.37213819779605</v>
+        <v>21.13966596652417</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.37213820999939</v>
+        <v>28.89791765488034</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.37213815745231</v>
+        <v>-4.745164362447721</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.37213820117898</v>
+        <v>13.95771837675584</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.37213821499817</v>
+        <v>21.29277017663164</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.37213817099214</v>
+        <v>5.337996829929654</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.37213820996516</v>
+        <v>24.33839289033939</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.37213820912461</v>
+        <v>21.29539538810874</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.37213820617098</v>
+        <v>15.49650941617022</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.37213822603275</v>
+        <v>25.05394952859356</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.372138231693</v>
+        <v>30.73373033456537</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.37213817693447</v>
+        <v>-1.625675843976733</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.37213822338911</v>
+        <v>19.7748500517541</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.37213823760683</v>
+        <v>27.34173143236031</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.37213819247661</v>
+        <v>-1.651650879283849</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.37213822983738</v>
+        <v>21.26860586531782</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.3721382415872</v>
+        <v>30.30722841474909</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.3721381913701</v>
+        <v>-7.483619781977037</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.37213823367781</v>
+        <v>11.27682168676382</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.37213824698343</v>
+        <v>19.29370792567213</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.37213820583579</v>
+        <v>5.335302516373265</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.37213824354411</v>
+        <v>24.16393760515693</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.37213825540323</v>
+        <v>32.53172124945125</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.37213825171328</v>
+        <v>30.0427863528945</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.37213827095917</v>
+        <v>39.9235960901454</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.37213827626435</v>
+        <v>47.16902508926277</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.37213822165378</v>
+        <v>5.929997577428988</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.37213826738519</v>
+        <v>30.23583961201214</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.37213828133036</v>
+        <v>40.19674076389124</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.37213823564241</v>
+        <v>37.13601866104019</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.37213823224383</v>
+        <v>33.63400915272952</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.37213825255533</v>
+        <v>43.41266924002606</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.37213825824551</v>
+        <v>49.14791214249084</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.37213820133211</v>
+        <v>13.48126051712716</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.37213824973736</v>
+        <v>38.82472655674935</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.3721382638706</v>
+        <v>46.25927912219016</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.37213821532324</v>
+        <v>8.472757904552942</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.37213825429334</v>
+        <v>34.63568177516981</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.37213826599672</v>
+        <v>43.49304207797169</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.3721382162761</v>
+        <v>7.605209989849133</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.37213826040623</v>
+        <v>29.83645575470191</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.37213827365926</v>
+        <v>37.6388314069562</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.37213823173926</v>
+        <v>22.39840567588777</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.37213827107188</v>
+        <v>44.19592931226323</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.37213828288413</v>
+        <v>52.37947708768742</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.37213827869859</v>
+        <v>52.56689917576992</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.37213829838734</v>
+        <v>62.67310466713947</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.37213830369696</v>
+        <v>69.86626011966212</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.37213824700586</v>
+        <v>25.41715388573552</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.37213829465712</v>
+        <v>53.51480449137853</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.37213830848418</v>
+        <v>63.30133527845744</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.37213824063756</v>
+        <v>38.30300148129229</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.37213823708713</v>
+        <v>34.85270310963353</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.37213825722958</v>
+        <v>44.59052262131555</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.37213826288586</v>
+        <v>50.60082889552058</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.37213820617962</v>
+        <v>14.1747542114086</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.37213825443417</v>
+        <v>40.4415949921008</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.3721382684091</v>
+        <v>48.07044736987426</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.37213821975759</v>
+        <v>8.44774831055004</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.37213825860943</v>
+        <v>35.29552128111098</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.37213827018806</v>
+        <v>44.30053292692578</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.37213822127744</v>
+        <v>9.206128518025746</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.37213826527364</v>
+        <v>32.20964879078625</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.37213827838541</v>
+        <v>40.18971313051185</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.3721382367276</v>
+        <v>24.12311201240102</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.37213827594084</v>
+        <v>46.57972107968459</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.37213828762719</v>
+        <v>54.9097649266686</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.37213828328852</v>
+        <v>55.2520746084157</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.37213830282117</v>
+        <v>65.32743396328966</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.37213830808892</v>
+        <v>72.73555683075898</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.37213825159731</v>
+        <v>27.55759294919364</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.37213829911694</v>
+        <v>56.54179344968708</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.37213831277498</v>
+        <v>66.48068917162357</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.37213822228202</v>
+        <v>31.30877447478451</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.37213821880579</v>
+        <v>24.8039443434857</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.37213823887803</v>
+        <v>34.50504341267307</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.37213824464584</v>
+        <v>41.14784445639711</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.37213818869077</v>
+        <v>6.073008636500429</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.37213823623524</v>
+        <v>30.51350085339065</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.37213825054858</v>
+        <v>38.94620107782467</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.37213820382701</v>
+        <v>4.887211080175923</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.37213824206819</v>
+        <v>30.23212298401157</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.37213825391522</v>
+        <v>40.01671468472885</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.37213820415716</v>
+        <v>3.867242505228059</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.37213824746185</v>
+        <v>25.25906165684238</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.37213826087755</v>
+        <v>34.09455615065217</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.37213821905092</v>
+        <v>17.12308761089625</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.37213825764783</v>
+        <v>38.2175342534657</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.37213826960507</v>
+        <v>47.30974120780401</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.37213826536582</v>
+        <v>44.44206556145059</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.37213828483485</v>
+        <v>54.496012650277</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.37213829021609</v>
+        <v>62.57235242107424</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.37213823438135</v>
+        <v>18.44508968197064</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.37213828122899</v>
+        <v>45.75314610244543</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.37213829523442</v>
+        <v>56.5044302305399</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.37213808416895</v>
+        <v>1.342297301653602</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.37213811681185</v>
+        <v>18.45206722482662</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.37213812689603</v>
+        <v>23.08476855660102</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.37213808113672</v>
+        <v>-0.1384269003589225</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.37213811810188</v>
+        <v>13.69732389865275</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.37213812952131</v>
+        <v>17.57218189400218</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.37213808934977</v>
+        <v>7.124936611364529</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.37213812229633</v>
+        <v>20.46065031683486</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.37213813247432</v>
+        <v>24.77893541023095</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.37213813332136</v>
+        <v>20.53820022051006</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.37213814983601</v>
+        <v>26.16920481238204</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.37213815459558</v>
+        <v>30.0739878089049</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.37213810908878</v>
+        <v>4.936683770970863</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.37213814887344</v>
+        <v>18.6459522680055</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.37213816089996</v>
+        <v>25.48160473149214</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.37213814412224</v>
+        <v>-0.8031692352056794</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.37213818108514</v>
+        <v>20.04303314473058</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.37213819281412</v>
+        <v>26.87704656607126</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.37213814035498</v>
+        <v>-8.226581578079387</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.37213818221215</v>
+        <v>8.054560831585146</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.37213819549417</v>
+        <v>14.46901107992294</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.37213815313509</v>
+        <v>1.832826140168866</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.37213819044184</v>
+        <v>18.83805565640254</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.3721381012509</v>
+        <v>5.383059659058198</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.3721381353015</v>
+        <v>25.2669572074186</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.37213814533498</v>
+        <v>29.77034799715186</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.3721380999343</v>
+        <v>7.390445137941676</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.37213813849355</v>
+        <v>24.19808279062735</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.37213814985556</v>
+        <v>27.91915154120668</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.3721381089452</v>
+        <v>16.00111265622341</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.37213814331256</v>
+        <v>31.87594407838318</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.37213815343936</v>
+        <v>36.0550311509664</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.37213815415184</v>
+        <v>34.26455437324594</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.37213817108742</v>
+        <v>40.22916628846088</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.37213817586759</v>
+        <v>44.16570618477034</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.37213812842836</v>
+        <v>15.7925034320848</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.37213816990721</v>
+        <v>32.73313367844825</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.3721381818227</v>
+        <v>39.46066576343857</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.37213816510972</v>
+        <v>5.49469683022355</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.3721382036722</v>
+        <v>29.58829079827627</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.37213821537359</v>
+        <v>36.34948763063017</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.37213816332164</v>
+        <v>2.661086902601262</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.37213820699018</v>
+        <v>22.43377445406184</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.37213822024095</v>
+        <v>28.72869868358195</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.37213817704147</v>
+        <v>14.39940082789464</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.37213821596267</v>
+        <v>34.37760001930688</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.37213810589185</v>
+        <v>3.68800911672739</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.372138139826</v>
+        <v>24.14867456862297</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.37213814975485</v>
+        <v>28.83200153430978</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.37213810510346</v>
+        <v>7.008563759819204</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.37213814353084</v>
+        <v>24.45979139415895</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.37213815477437</v>
+        <v>28.38430147666657</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.37213811413882</v>
+        <v>15.65003593818359</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.37213814838864</v>
+        <v>32.08292566093848</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.37213815840985</v>
+        <v>36.43711546653488</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.37213815901097</v>
+        <v>34.87809044841028</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.37213817581449</v>
+        <v>40.87026695466059</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.3721381805657</v>
+        <v>45.01378492726467</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.37213813326076</v>
+        <v>15.84232536726018</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.37213817461431</v>
+        <v>33.57319360406797</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.37213818638613</v>
+        <v>40.47312764997771</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.37213816969412</v>
+        <v>4.092478555770864</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.37213820812421</v>
+        <v>28.84910680909189</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.37213821971156</v>
+        <v>35.82996107788026</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.37213816848294</v>
+        <v>2.780609936101779</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.37213821200157</v>
+        <v>23.3027026210582</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.37213822512321</v>
+        <v>29.84127125661729</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.37213818219915</v>
+        <v>14.58423033868455</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.37213822098673</v>
+        <v>35.19890699316728</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.37213809227949</v>
+        <v>1.467497724856486</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.37213812565338</v>
+        <v>20.53046679884135</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.37213813582574</v>
+        <v>25.89279147430946</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.37213809050435</v>
+        <v>3.923592463781382</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.37213812829729</v>
+        <v>19.86356293400329</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.37213813981658</v>
+        <v>24.51712722811275</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.3721380990275</v>
+        <v>11.25506156366815</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.37213813271185</v>
+        <v>26.41335513549014</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.37213814297884</v>
+        <v>31.44025819408878</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.37213814354067</v>
+        <v>27.20929935555895</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.37213816025608</v>
+        <v>33.0754235397369</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.37213816510279</v>
+        <v>37.67440560942833</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.37213811850706</v>
+        <v>9.883067339443404</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.37213815922984</v>
+        <v>26.0726560367021</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.37213817131328</v>
+        <v>33.65862817461599</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.37213815412115</v>
+        <v>1.011528451693533</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.3721381919152</v>
+        <v>24.14717609963655</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.3721382037665</v>
+        <v>31.88207483645864</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.37213815172646</v>
+        <v>-1.973150450487974</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.37213819452483</v>
+        <v>16.78547282702417</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.37213820794536</v>
+        <v>24.16433311567979</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.37213816489267</v>
+        <v>8.300096982610032</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.3721382030383</v>
+        <v>27.437807990853</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.37213820227993</v>
+        <v>24.91224841856086</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.37213819972459</v>
+        <v>19.00803946658951</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.37213821906933</v>
+        <v>28.74259313250473</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.37213822455311</v>
+        <v>34.230226047158</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.37213817101129</v>
+        <v>1.254990003089482</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.37213821653468</v>
+        <v>23.10996688321366</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.37213823037925</v>
+        <v>30.54664514213118</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.372138186961</v>
+        <v>0.3690561290632139</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.37213822350192</v>
+        <v>23.30827297883285</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.37213823496591</v>
+        <v>32.2704042308704</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.37213818526241</v>
+        <v>-5.624925034999745</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.37213822664173</v>
+        <v>13.15946519156891</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.37213823962366</v>
+        <v>21.15256863309415</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.37213819936015</v>
+        <v>7.33007362009722</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.37213823624099</v>
+        <v>26.25757736591962</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.37213824781162</v>
+        <v>34.55283218394863</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.37213824458494</v>
+        <v>32.0297599975473</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.37213826332091</v>
+        <v>42.03863726864627</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.37213826848225</v>
+        <v>49.22857878069546</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.37213821506483</v>
+        <v>7.466101858129079</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.37213825985406</v>
+        <v>32.11663710486954</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.37213827349105</v>
+        <v>41.86930175475209</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.37213822777291</v>
+        <v>40.36788130714186</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.37213822476638</v>
+        <v>36.77247840148199</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.37213824455698</v>
+        <v>46.73357422892848</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.37213825006635</v>
+        <v>52.28051273377909</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.37213819441989</v>
+        <v>16.01651378118389</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.37213824187112</v>
+        <v>41.79131077553335</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.37213825562078</v>
+        <v>49.08788186886616</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.37213820892748</v>
+        <v>10.04300129466023</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.37213824705697</v>
+        <v>36.18432864328747</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.37213825846402</v>
+        <v>44.95338106094329</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.37213820923524</v>
+        <v>9.008913789803596</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.37213825241346</v>
+        <v>31.22284604888458</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.37213826533092</v>
+        <v>38.98948354104794</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.37213822428793</v>
+        <v>23.89159381593024</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.37213826277211</v>
+        <v>45.75148807882893</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.37213827428528</v>
+        <v>53.85049790992126</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.37213827056177</v>
+        <v>54.01541719988675</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.37213828973749</v>
+        <v>64.25240411884862</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.37213829489929</v>
+        <v>71.39588553591601</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.37213823944678</v>
+        <v>26.44640346915256</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.37213828613506</v>
+        <v>54.8621833226958</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.37213829964345</v>
+        <v>64.43552313867939</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.37213823268187</v>
+        <v>41.40645716525185</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.37213822952369</v>
+        <v>37.88118651487484</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.3721382491497</v>
+        <v>47.7982118932276</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.37213825462499</v>
+        <v>53.61837991414873</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.37213819918646</v>
+        <v>16.6201479683033</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.37213824648909</v>
+        <v>43.29653048742175</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.37213826008133</v>
+        <v>50.7849893333193</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.37213821328671</v>
+        <v>9.876500589004857</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.37213825130048</v>
+        <v>36.68406885398492</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.37213826258344</v>
+        <v>45.60142819170879</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.37213821415498</v>
+        <v>10.46270839697443</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.37213825720216</v>
+        <v>33.428524124753</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.37213826997909</v>
+        <v>41.37495401070984</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.37213822919347</v>
+        <v>25.45908853551859</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.37213826756086</v>
+        <v>47.96033898562402</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.37213827894877</v>
+        <v>56.20626648722274</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.37213827507214</v>
+        <v>56.54170207439897</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.37213829409615</v>
+        <v>66.74413914465724</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.37213829921596</v>
+        <v>74.09963412247232</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.37213824396353</v>
+        <v>28.4500557363091</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.3721382905226</v>
+        <v>57.73007480825041</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.37213830386229</v>
+        <v>67.45527674665635</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.37213821499985</v>
+        <v>34.38809672795593</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.37213821193688</v>
+        <v>27.82675858466963</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.37213823148765</v>
+        <v>37.694389171362</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.37213823707065</v>
+        <v>44.13465236955188</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.37213818237214</v>
+        <v>8.514022806098662</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.37213822896323</v>
+        <v>33.35294058149484</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.37213824289137</v>
+        <v>41.64498499831524</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.37213819793637</v>
+        <v>6.340096089956333</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.37213823533917</v>
+        <v>31.65057727001373</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.37213824689183</v>
+        <v>41.3578949074432</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.37213819763753</v>
+        <v>5.11059834403925</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.37213823999284</v>
+        <v>26.46676723824231</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.37213825307519</v>
+        <v>35.28320455756301</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.37213821214923</v>
+        <v>18.48038617976272</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.37213824989997</v>
+        <v>39.62455557579252</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.37213826156011</v>
+        <v>48.64314127507475</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.37213825780103</v>
+        <v>45.78646890676441</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.37213827675538</v>
+        <v>55.95630719816626</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.37213828198605</v>
+        <v>63.96527324321785</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.37213822738347</v>
+        <v>19.3953313441177</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.37213827326702</v>
+        <v>46.99077913212555</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.37213828695315</v>
+        <v>57.52570241642709</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.37213808338175</v>
+        <v>0.6037118383686497</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.37213811915495</v>
+        <v>20.02222757309158</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.37213813016006</v>
+        <v>25.15058276119643</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.37213808063737</v>
+        <v>-0.2822072134063909</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.37213812114731</v>
+        <v>15.623836695441</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.37213813360961</v>
+        <v>19.90890515321228</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.37213808985192</v>
+        <v>7.78559452096631</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.3721381259579</v>
+        <v>23.03610985053499</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.37213813706539</v>
+        <v>27.81079498538597</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.37213813728797</v>
+        <v>23.19789433395369</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.37213815538493</v>
+        <v>29.71901074292594</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.37213816058064</v>
+        <v>33.81255471677488</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.37213811056065</v>
+        <v>5.512131760664548</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.37213815409756</v>
+        <v>21.08205606659823</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.37213816721435</v>
+        <v>28.75885010804353</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.3721381506814</v>
+        <v>0.01972184938560062</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.37213819119653</v>
+        <v>23.64111353616116</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.3721382039615</v>
+        <v>30.80775941762599</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.37213814717246</v>
+        <v>-7.134684718043335</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.37213819305221</v>
+        <v>11.57712659440006</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.37213820750739</v>
+        <v>18.23020644390731</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.37213816142695</v>
+        <v>3.999384565943704</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.37213820231898</v>
+        <v>23.37061651816757</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.37213810234213</v>
+        <v>5.575287323187087</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.3721381396509</v>
+        <v>28.06361068567066</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.37213815059543</v>
+        <v>33.01542021813126</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.37213810147037</v>
+        <v>8.494675647923859</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.3721381437192</v>
+        <v>27.69326659239141</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.3721381561129</v>
+        <v>31.76812429887696</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.37213811156156</v>
+        <v>18.0608392391462</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.3721381492174</v>
+        <v>36.12278153298998</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.37213816026374</v>
+        <v>40.71168069493467</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.37213816033326</v>
+        <v>38.78566142573899</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.37213817888509</v>
+        <v>45.66899444099987</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.37213818410016</v>
+        <v>49.77232351147178</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.37213813196839</v>
+        <v>17.91631641310143</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.37213817735074</v>
+        <v>37.04826205295234</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.37213819033875</v>
+        <v>44.57049262061796</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.3721381738865</v>
+        <v>7.389694575895344</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.37213821614382</v>
+        <v>34.58600419575495</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.37213822887193</v>
+        <v>41.62709139374218</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.37213817253815</v>
+        <v>5.243493852696453</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.37213822039077</v>
+        <v>27.80279896711085</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.37213823480422</v>
+        <v>34.27062984035709</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.37213818782156</v>
+        <v>18.23648907110679</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.37213823047198</v>
+        <v>40.88128485734497</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.37213810733767</v>
+        <v>3.87703255374463</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.3721381445189</v>
+        <v>27.00367293596611</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.37213815534849</v>
+        <v>32.13841535900772</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.37213810703933</v>
+        <v>8.227863277820852</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.37213814914373</v>
+        <v>28.13903291090976</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.37213816140728</v>
+        <v>32.42131086132326</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.37213811715341</v>
+        <v>17.8319089266695</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.37213815468052</v>
+        <v>36.51184023394419</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.37213816561086</v>
+        <v>41.27852471641509</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.37213816556774</v>
+        <v>39.61056335227458</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.37213818397436</v>
+        <v>46.52186196513262</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.37213818915716</v>
+        <v>50.84640372907352</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.37213813717352</v>
+        <v>18.11617969736274</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.37213818241871</v>
+        <v>38.11851792929714</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.37213819524931</v>
+        <v>45.81692303445853</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.37213817879017</v>
+        <v>6.00067560014195</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.37213822090195</v>
+        <v>33.92633566954149</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.37213823350479</v>
+        <v>41.19379211871419</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.37213817806775</v>
+        <v>5.510252715706144</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.37213822575556</v>
+        <v>28.89435222000769</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.37213824002715</v>
+        <v>35.61330827634329</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.37213819334168</v>
+        <v>18.57930580913954</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.3721382358452</v>
+        <v>41.92449651966793</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.37213809237672</v>
+        <v>1.190490843505184</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.37213812895004</v>
+        <v>22.7792641399235</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.37213814004983</v>
+        <v>28.66969992827497</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.37213809101468</v>
+        <v>4.616855459056339</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.37213813243069</v>
+        <v>22.86249229888052</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.37213814500021</v>
+        <v>27.96210061418723</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.37213810056725</v>
+        <v>12.77544073928341</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.3721381374808</v>
+        <v>30.0533509951094</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.37213814868385</v>
+        <v>35.5664009289743</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.37213814859679</v>
+        <v>30.98003274878781</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.37213816691114</v>
+        <v>37.75882769466212</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.3721381722013</v>
+        <v>42.60022148818937</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.3721381209849</v>
+        <v>11.3701024092803</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.37213816554639</v>
+        <v>29.68078671090213</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.37213817872444</v>
+        <v>38.15137875720296</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.37213816171821</v>
+        <v>2.451034135484168</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.3721382031421</v>
+        <v>28.60318606732284</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.3721382160377</v>
+        <v>36.71440418190986</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.37213815971647</v>
+        <v>0.151487792164577</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.37213820662529</v>
+        <v>21.60351132190986</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.3721382212284</v>
+        <v>29.26815819222001</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.37213817438911</v>
+        <v>11.53461364220022</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.37213821619833</v>
+        <v>33.26473256382923</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.37213821520269</v>
+        <v>29.7058438908871</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.37213821170264</v>
+        <v>23.59387308242022</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.37213823292316</v>
+        <v>34.66236431880921</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.37213823889618</v>
+        <v>40.31554557047382</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.37213818004482</v>
+        <v>3.647400670246572</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.37213822988567</v>
+        <v>28.23688641336388</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.37213824494086</v>
+        <v>36.14099727776257</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.37213819605447</v>
+        <v>-0.3904541168590292</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.37213823607126</v>
+        <v>25.38226265328577</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.37213824855916</v>
+        <v>35.01761387166886</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.372138194716</v>
+        <v>-5.971749497540653</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.37213824003143</v>
+        <v>15.3372723404597</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.37213825417285</v>
+        <v>23.85525620037922</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.37213821032915</v>
+        <v>8.197563891450368</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.3721382507182</v>
+        <v>29.53642552890894</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.37213826332227</v>
+        <v>38.44661187884476</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.37213825910083</v>
+        <v>35.99142692897811</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.37213827965714</v>
+        <v>47.39239739813176</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.37213828528586</v>
+        <v>54.91130648802746</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.37213822663924</v>
+        <v>8.671453088869903</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.37213827563944</v>
+        <v>36.26381541611766</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.37213829048179</v>
+        <v>46.81145442897294</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.37213824331849</v>
+        <v>47.0815073344218</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.37213823931897</v>
+        <v>43.49915694452113</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.37213826102004</v>
+        <v>54.80617926053674</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.37213826701688</v>
+        <v>60.49250185624949</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.37213820587435</v>
+        <v>20.24559124128737</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.37213825781146</v>
+        <v>49.13075277702114</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.37213827275371</v>
+        <v>56.83339902697537</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.37213822026435</v>
+        <v>10.56918862841531</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.37213826200996</v>
+        <v>39.87082376272066</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.37213827443115</v>
+        <v>49.25204225481964</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.37213822111208</v>
+        <v>10.39073163455474</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.37213826838524</v>
+        <v>35.48210003370494</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.37213828245111</v>
+        <v>43.70120015378824</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.37213823776666</v>
+        <v>26.68915309973884</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.3721382799006</v>
+        <v>51.26106469149382</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.37213829243734</v>
+        <v>59.91587905834541</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.372138287663</v>
+        <v>60.39619696511812</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.37213830869433</v>
+        <v>72.04000631227456</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.3721383143203</v>
+        <v>79.4801602189533</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.37213825345984</v>
+        <v>29.76971219423022</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.37213830452365</v>
+        <v>61.49593250668052</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.37213831921898</v>
+        <v>71.80182128911161</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.37213824856528</v>
+        <v>48.34882617215322</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.37213824440875</v>
+        <v>44.84281781261193</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.37213826592813</v>
+        <v>56.09673944795173</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.37213827188706</v>
+        <v>62.07674665366267</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.37213821097604</v>
+        <v>21.03123392445078</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.37213826274946</v>
+        <v>50.90446910732948</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.37213827751921</v>
+        <v>58.80479522864049</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.37213822492391</v>
+        <v>10.52957029897681</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.37213826654176</v>
+        <v>40.56402918091644</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.37213827882712</v>
+        <v>50.09533099363021</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.37213822638005</v>
+        <v>12.11434351457367</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.37213827350853</v>
+        <v>38.03290613476671</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.3721382874206</v>
+        <v>46.43547525681316</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.37213824301345</v>
+        <v>28.5421565039961</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.37213828501845</v>
+        <v>53.81989236169322</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.3721382974181</v>
+        <v>62.62342979099361</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.37213829248461</v>
+        <v>63.28773998694115</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.3721383133483</v>
+        <v>74.88866208081224</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.37213831892783</v>
+        <v>82.55756523928225</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.37213825829058</v>
+        <v>32.08607792480424</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.37213830921117</v>
+        <v>64.75929760150188</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.37213832372224</v>
+        <v>75.22078121964059</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.3721382292139</v>
+        <v>40.51717160980834</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.37213822516031</v>
+        <v>33.69507647841715</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.3721382466025</v>
+        <v>44.90405884964017</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.37213825268258</v>
+        <v>51.585321413008</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.37213819256737</v>
+        <v>12.01639457117243</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.37213824357281</v>
+        <v>39.88801412698509</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.37213825871671</v>
+        <v>48.69662649875546</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.37213820811544</v>
+        <v>6.548231672092729</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.37213824907244</v>
+        <v>34.93648147190704</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.37213826165565</v>
+        <v>45.35552345080244</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.37213820831208</v>
+        <v>6.17956131779081</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.37213825469221</v>
+        <v>30.32655043796941</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.37213826894157</v>
+        <v>39.71226411965726</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.37213822437067</v>
+        <v>20.81447296215998</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.37213826570867</v>
+        <v>44.59992973547423</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.37213827840894</v>
+        <v>54.2692493611103</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.37213827360547</v>
+        <v>51.44947596164522</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.37213829439721</v>
+        <v>63.0213607537826</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.37213830010067</v>
+        <v>71.42834371099195</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.37213824016206</v>
+        <v>22.11241215106708</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.37213829035322</v>
+        <v>52.93975553777023</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.3721383052483</v>
+        <v>64.32019013327776</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.3721380902756</v>
+        <v>3.649965998615265</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.37213812444502</v>
+        <v>21.29214853844217</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.37213813516366</v>
+        <v>26.46590436691406</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.37213808822391</v>
+        <v>2.953698388334633</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.37213812691771</v>
+        <v>17.16724211125561</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.3721381390556</v>
+        <v>21.58526179664752</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.3721380970253</v>
+        <v>10.46414861689851</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.37213813151258</v>
+        <v>24.12772336143396</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.37213814233092</v>
+        <v>28.93284242685984</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.37213814255286</v>
+        <v>24.4154584944201</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.37213815996187</v>
+        <v>30.21128966424451</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.37213816505209</v>
+        <v>34.47757318855833</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.3721381171942</v>
+        <v>8.645904637256031</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.37213815873042</v>
+        <v>22.19080564642712</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.37213817148509</v>
+        <v>30.06941733834683</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.37213815555361</v>
+        <v>1.191598702502013</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.3721381942594</v>
+        <v>22.8386284930653</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.37213820668672</v>
+        <v>30.11128502352655</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.37213815282781</v>
+        <v>-5.340135058096845</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.37213819665865</v>
+        <v>11.55284021229717</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.37213821073147</v>
+        <v>18.38559471101678</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.37213816638588</v>
+        <v>4.691764627449881</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.37213820545173</v>
+        <v>22.27552719629212</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.37213810898461</v>
+        <v>8.62088342916217</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.37213814461963</v>
+        <v>29.20820023754862</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.37213815529149</v>
+        <v>34.25001008429555</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.3721381087489</v>
+        <v>11.49931273248439</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.37213814910237</v>
+        <v>28.86675452521398</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.37213816118729</v>
+        <v>33.1243054123722</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.37213811843073</v>
+        <v>20.46178761460363</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.37213815439725</v>
+        <v>36.82261508333584</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.37213816516838</v>
+        <v>41.4857376515697</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.37213816526854</v>
+        <v>39.52316228060563</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.37213818311087</v>
+        <v>45.66266987068641</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.37213818822205</v>
+        <v>49.94793368630239</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.37213813832257</v>
+        <v>20.69762378314504</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.37213818161892</v>
+        <v>37.641353423993</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.3721381942619</v>
+        <v>45.40590979012627</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.37213817836886</v>
+        <v>8.436868602924076</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.37213821873605</v>
+        <v>33.50668879951219</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.37213823114325</v>
+        <v>40.70518943349204</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.37213817773616</v>
+        <v>6.642809461208127</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.37213822344838</v>
+        <v>27.21355550339797</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.37213823749842</v>
+        <v>33.92009499157329</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.37213819232228</v>
+        <v>18.46957872217639</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.37213823306499</v>
+        <v>39.18772487390049</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.37213811384695</v>
+        <v>7.075589580108424</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.37213814936297</v>
+        <v>28.29094445611414</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.37213815992568</v>
+        <v>33.51263009668896</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.37213811415772</v>
+        <v>11.30570065057504</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.37213815437643</v>
+        <v>29.37255157454928</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.37213816633775</v>
+        <v>33.83280906013608</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.37213812386998</v>
+        <v>20.31291365232641</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.37213815971639</v>
+        <v>37.2817063096979</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.37213817037737</v>
+        <v>42.11972728759728</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.37213817036765</v>
+        <v>40.38593103371335</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.37213818807123</v>
+        <v>46.55904337044001</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.3721381931516</v>
+        <v>51.05604879322009</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.37213814338468</v>
+        <v>20.94596868941446</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.37213818655439</v>
+        <v>38.74034976115136</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.37213819904804</v>
+        <v>46.6778114038542</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.37213818313652</v>
+        <v>7.185240238847577</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.37213822336704</v>
+        <v>32.9675709061508</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.37213823565577</v>
+        <v>40.38737048228883</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.37213818310014</v>
+        <v>6.960961426302443</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.37213822865758</v>
+        <v>28.33535902497473</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.37213824257346</v>
+        <v>35.28602916723518</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.3721381976869</v>
+        <v>18.87084598791138</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.37213823829165</v>
+        <v>40.273128049425</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.3721380991312</v>
+        <v>4.526508518454154</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.37213813407108</v>
+        <v>24.27657142133539</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.37213814488935</v>
+        <v>30.19276352326405</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.37213809841608</v>
+        <v>7.940455962317788</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.37213813798235</v>
+        <v>24.42394285914993</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.37213815023307</v>
+        <v>29.63227328161341</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.37213810756082</v>
+        <v>15.55552840342727</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.37213814282572</v>
+        <v>31.18871268204904</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.37213815374463</v>
+        <v>36.71302154941431</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.37213815366439</v>
+        <v>32.18224155333461</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.37213817128492</v>
+        <v>38.23748435395997</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.3721381764723</v>
+        <v>43.22409992419296</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.37213812744512</v>
+        <v>14.54556533570243</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.3721381699682</v>
+        <v>30.73671478074931</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.37213818279325</v>
+        <v>39.39252864771989</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.37213816638132</v>
+        <v>3.861092540035404</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.37213820596099</v>
+        <v>27.95409049101219</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.37213821852466</v>
+        <v>36.14693395435309</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.3721381651121</v>
+        <v>1.964679108028207</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.37213820993252</v>
+        <v>21.50298190309473</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.37213822415975</v>
+        <v>29.31676289543994</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.37213817909092</v>
+        <v>12.25282996171622</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.37213821903877</v>
+        <v>32.11607909812514</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.37213821799466</v>
+        <v>28.72874604933138</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.37213821456381</v>
+        <v>22.78574453527442</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.37213823499142</v>
+        <v>32.95141155561437</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.37213824084061</v>
+        <v>38.90921730093646</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.37213818446208</v>
+        <v>4.90094759304257</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.37213823205257</v>
+        <v>27.18334763675352</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.37213824667039</v>
+        <v>35.25478694253433</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.37213819930979</v>
+        <v>1.910912150342888</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.37213823756438</v>
+        <v>25.71060715224246</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.37213824967132</v>
+        <v>35.31283857258282</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.37213819862297</v>
+        <v>-3.02223087978205</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.37213824194285</v>
+        <v>16.44367331703847</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.37213825565287</v>
+        <v>25.03525154778661</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.37213821348345</v>
+        <v>9.95289922534746</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.37213825209389</v>
+        <v>29.50966932158333</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.37213826431346</v>
+        <v>38.39080255397332</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.37213826013481</v>
+        <v>35.92797006369016</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.37213827992312</v>
+        <v>46.4556456162717</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.37213828541277</v>
+        <v>54.02436881091002</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.37213822925448</v>
+        <v>10.85134734765307</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.37213827605809</v>
+        <v>36.08693260956086</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.37213829040924</v>
+        <v>46.70400233128866</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.3721382455876</v>
+        <v>45.55628914573195</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.37213824169307</v>
+        <v>41.97235986107642</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.37213826257767</v>
+        <v>52.36142227058956</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.37213826845312</v>
+        <v>58.36278116508991</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.37213820986756</v>
+        <v>20.93558936059463</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.37213825945575</v>
+        <v>47.30904616681863</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.37213827398172</v>
+        <v>55.22837419771136</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.37213822308019</v>
+        <v>12.75729739747002</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.37213826298252</v>
+        <v>39.93784403087746</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.37213827504075</v>
+        <v>49.33763057474872</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.37213822450639</v>
+        <v>12.92451986072997</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.3721382696922</v>
+        <v>36.00768024505575</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.37213828334706</v>
+        <v>44.35950219532729</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.37213824040379</v>
+        <v>27.96965044681511</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.37213828067731</v>
+        <v>50.6246093860004</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.37213829284771</v>
+        <v>59.30018324413159</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.37213828815026</v>
+        <v>59.58416366912903</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.37213830838929</v>
+        <v>70.34045557782106</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.37213831387982</v>
+        <v>77.84400654747378</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.3721382555917</v>
+        <v>31.34815046510844</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.37213830435958</v>
+        <v>60.52188941088701</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.37213831858666</v>
+        <v>70.94483616363914</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.3721382506947</v>
+        <v>46.86086880962948</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.37213824664686</v>
+        <v>43.32383026953836</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.3721382673572</v>
+        <v>53.66772215439852</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.37213827319673</v>
+        <v>59.94997621121394</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.37213821482623</v>
+        <v>21.74273736448802</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.37213826426148</v>
+        <v>49.07636584412261</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.37213827862466</v>
+        <v>57.18974916681344</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.37213822761081</v>
+        <v>12.83322957391273</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.37213826739292</v>
+        <v>40.72980345728143</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.37213827932316</v>
+        <v>50.27640866362026</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.37213822961698</v>
+        <v>14.66946739783976</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.37213827466665</v>
+        <v>38.5591238120895</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.37213828817657</v>
+        <v>47.08893786369069</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.37213824550295</v>
+        <v>29.8523890626175</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.37213828565513</v>
+        <v>53.19697505811776</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.37213829769635</v>
+        <v>62.01801023182018</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.37213829284427</v>
+        <v>62.45223443871278</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.3721383129223</v>
+        <v>73.17305488111298</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.37213831836882</v>
+        <v>80.89690422627793</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.37213826028794</v>
+        <v>33.65290512348513</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.37213830892163</v>
+        <v>63.74799752825167</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.37213832297545</v>
+        <v>74.32341975913508</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.37213823171932</v>
+        <v>39.46310752162414</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.37213822774621</v>
+        <v>32.77792052321536</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.37213824838833</v>
+        <v>43.09010265743754</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.37213825434799</v>
+        <v>50.03941063328461</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.37213819674043</v>
+        <v>13.22282174330748</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.37213824545099</v>
+        <v>38.66627947479524</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.37213826016831</v>
+        <v>47.62391027924356</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.37213821112469</v>
+        <v>8.998367291880133</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.37213825028282</v>
+        <v>35.32655452552214</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.37213826249188</v>
+        <v>45.69234976731606</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.37213821192116</v>
+        <v>9.034688793002243</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.37213825626423</v>
+        <v>31.24248596962038</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.37213827008989</v>
+        <v>40.6748677136404</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.37213822722685</v>
+        <v>22.48141189942378</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.37213826674925</v>
+        <v>44.40312221812225</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.37213827907188</v>
+        <v>54.02394017523046</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.37213827432334</v>
+        <v>51.14735015027208</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.37213829433923</v>
+        <v>61.85116405666494</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.37213829990706</v>
+        <v>70.2796410938313</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.37213824249371</v>
+        <v>24.1210096846014</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.37213829044104</v>
+        <v>52.47312795854053</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.37213830485715</v>
+        <v>63.90582184131117</v>
       </c>
     </row>
   </sheetData>
